--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -10,54 +10,54 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$73</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$74:$B$83</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$91</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$92:$C$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$37</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$38:$B$47</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$37</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$38:$C$47</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$145</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$146:$B$155</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$145</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$146:$C$155</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$73</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$18</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$18</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$109</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$110:$B$119</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$109</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$110:$C$119</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$56:$B$65</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$74:$C$83</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$55</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$56:$C$65</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$55</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$56:$B$65</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$73</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$74:$C$83</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$91</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$92:$B$101</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$91</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$92:$C$101</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$181</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$182:$B$191</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$181</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$182:$C$191</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$109</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$110:$B$119</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$109</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$110:$C$119</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$127</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$128:$B$137</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$127</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$128:$C$137</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$145</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$146:$B$155</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$56:$C$65</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$145</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$146:$C$155</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$163</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$164:$B$173</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$163</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$164:$C$173</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$181</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$39</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$40:$B$49</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$39</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$40:$C$49</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$127</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$128:$B$137</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$127</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$128:$C$137</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$182:$B$191</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$181</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$182:$C$191</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$91</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$92:$B$101</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$18</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$19:$C$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$37</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$38:$B$47</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$37</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$38:$C$47</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$199</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$200:$B$209</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$199</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$200:$C$209</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$73</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$74:$B$83</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="57">
   <si>
     <t>Default</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>Experiment No 10</t>
+  </si>
+  <si>
+    <t>Experiment No 11</t>
+  </si>
+  <si>
+    <t>Note: Mutating change is using Gaussian distribution with mean = 0.5 and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SD = 0.1</t>
+  </si>
+  <si>
+    <t>Gaussian distribution</t>
   </si>
 </sst>
 </file>
@@ -488,12 +500,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -504,7 +516,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -517,7 +529,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -600,12 +612,63 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -616,7 +679,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -629,7 +692,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -656,6 +719,220 @@
 </file>
 
 <file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -706,7 +983,118 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -741,331 +1129,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1163,6 +1226,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2495,6 +2598,492 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7618,6 +8207,74 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Chart 14"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7884,10 +8541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10481,7 +11138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>3</v>
       </c>
@@ -10504,7 +11161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>4</v>
       </c>
@@ -10527,7 +11184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>5</v>
       </c>
@@ -10550,7 +11207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>6</v>
       </c>
@@ -10573,7 +11230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>7</v>
       </c>
@@ -10590,7 +11247,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>11</v>
       </c>
@@ -10610,7 +11267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>12</v>
       </c>
@@ -10624,7 +11281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>9</v>
       </c>
@@ -10638,7 +11295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>10</v>
       </c>
@@ -10649,7 +11306,7 @@
         <v>4.0619550375272997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>13</v>
       </c>
@@ -10674,7 +11331,7 @@
         <v>8.4757326750708489E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>22</v>
       </c>
@@ -10685,6 +11342,259 @@
       <c r="C193" s="3">
         <f>AVERAGE(C182:C191)</f>
         <v>0.10523650725832626</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="17"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="17"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1.56102756714427E-2</v>
+      </c>
+      <c r="C200" s="5">
+        <v>2.18261922034769E-2</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="1">
+        <v>100</v>
+      </c>
+      <c r="H200" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="6">
+        <v>1.13428332413501E-2</v>
+      </c>
+      <c r="C201" s="7">
+        <v>2.16394450406165E-2</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="1">
+        <v>6</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="6">
+        <v>1.03808820426131E-2</v>
+      </c>
+      <c r="C202" s="7">
+        <v>1.5887839081627299E-2</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H202" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="6">
+        <v>1.4504414527837E-2</v>
+      </c>
+      <c r="C203" s="7">
+        <v>1.8399359254018199E-2</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="H203" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6">
+        <v>9.1735519340466407E-3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>3.9815038964525797E-2</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" s="6">
+        <v>8.7125952336302003E-3</v>
+      </c>
+      <c r="C205" s="7">
+        <v>1.7435768208243801E-2</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="I205" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="6">
+        <v>1.0912222114364E-2</v>
+      </c>
+      <c r="C206" s="7">
+        <v>2.20189664559809E-2</v>
+      </c>
+      <c r="I206" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="6">
+        <v>9.15992314581561E-3</v>
+      </c>
+      <c r="C207" s="7">
+        <v>8.1043121935016296E-2</v>
+      </c>
+      <c r="I207" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="7"/>
+      <c r="I208" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="8"/>
+      <c r="C209" s="9"/>
+      <c r="I209" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="10">
+        <f>MEDIAN(B200:B209)</f>
+        <v>1.0646552078488549E-2</v>
+      </c>
+      <c r="C210" s="10">
+        <f>MEDIAN(C200:C209)</f>
+        <v>2.17328186220467E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="3">
+        <f>AVERAGE(B200:B209)</f>
+        <v>1.1224587238887418E-2</v>
+      </c>
+      <c r="C211" s="3">
+        <f>AVERAGE(C200:C209)</f>
+        <v>2.9758216392938214E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -10,54 +10,70 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$56:$B$65</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$73</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$74:$C$83</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$91</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$92:$B$101</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$91</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$92:$C$101</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$181</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$182:$B$191</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$181</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$182:$C$191</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$55</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$109</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$110:$B$119</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$109</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$110:$C$119</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$127</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$128:$B$137</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$127</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$128:$C$137</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$145</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$146:$B$155</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$56:$C$65</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$145</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$146:$C$155</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$163</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$164:$B$173</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$163</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$164:$C$173</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$18</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$18</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$37</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$38:$B$47</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$37</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$38:$C$47</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$199</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$200:$B$209</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$199</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$200:$C$209</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$73</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$74:$B$83</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$253</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$254:$B$263</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$37</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$38:$C$47</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$217</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$218:$B$227</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$217</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$218:$C$227</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$55</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$56:$B$65</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$56:$C$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$253</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$73</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$74:$B$83</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$73</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$74:$C$83</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$91</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$92:$B$101</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$91</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$92:$C$101</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$254:$C$263</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$145</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$146:$B$155</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$145</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$146:$C$155</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$109</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$110:$B$119</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$109</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$110:$C$119</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$127</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$128:$B$137</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$127</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$128:$C$137</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$163</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$164:$B$173</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$163</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$164:$C$173</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$181</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$182:$B$191</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$181</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$182:$C$191</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$199</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$200:$B$209</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$199</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$200:$C$209</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$271</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$272:$B$281</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$271</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$272:$C$281</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$18</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$235</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$236:$B$245</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$235</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$236:$C$245</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$19:$C$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$37</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$38:$B$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="63">
   <si>
     <t>Default</t>
   </si>
@@ -240,6 +256,24 @@
   </si>
   <si>
     <t>Gaussian distribution</t>
+  </si>
+  <si>
+    <t>Note: Mutating change is using Gaussian distribution with mean = 0.4 and</t>
+  </si>
+  <si>
+    <t>Experiment No 12</t>
+  </si>
+  <si>
+    <t>Mutation rate</t>
+  </si>
+  <si>
+    <t>Experiment No 13</t>
+  </si>
+  <si>
+    <t>Experiment No 14</t>
+  </si>
+  <si>
+    <t>Experiment No 15</t>
   </si>
 </sst>
 </file>
@@ -500,331 +534,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
@@ -881,7 +590,373 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.55</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.63</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.57</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -932,17 +1007,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -953,7 +1028,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -966,7 +1041,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -983,7 +1058,68 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1034,7 +1170,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1052,7 +1188,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}">
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.24</cx:f>
@@ -1065,7 +1201,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}">
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.26</cx:f>
@@ -1079,32 +1215,23 @@
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1115,7 +1242,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1128,7 +1255,109 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1266,6 +1495,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3084,6 +3473,1950 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8275,6 +10608,278 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="17" name="Chart 16"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Chart 17"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Chart 18"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Chart 19"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8541,10 +11146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10364,7 +12969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>3</v>
       </c>
@@ -10387,7 +12992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>4</v>
       </c>
@@ -10410,7 +13015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>5</v>
       </c>
@@ -10433,7 +13038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>6</v>
       </c>
@@ -10456,7 +13061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>7</v>
       </c>
@@ -10473,7 +13078,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>11</v>
       </c>
@@ -10493,7 +13098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>12</v>
       </c>
@@ -10507,7 +13112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>9</v>
       </c>
@@ -10521,7 +13126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>10</v>
       </c>
@@ -10532,7 +13137,7 @@
         <v>5.0391399142971603E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>13</v>
       </c>
@@ -11396,7 +14001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
         <v>3</v>
       </c>
@@ -11419,7 +14024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>4</v>
       </c>
@@ -11442,7 +14047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
         <v>5</v>
       </c>
@@ -11465,7 +14070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
         <v>6</v>
       </c>
@@ -11488,7 +14093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
         <v>7</v>
       </c>
@@ -11505,7 +14110,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>11</v>
       </c>
@@ -11523,7 +14128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>12</v>
       </c>
@@ -11537,7 +14142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>9</v>
       </c>
@@ -11551,27 +14156,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="6">
+        <v>1.1479557488997399E-2</v>
+      </c>
+      <c r="C208" s="7">
+        <v>3.1743583517208802E-2</v>
+      </c>
       <c r="I208" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="9"/>
+      <c r="B209" s="8">
+        <v>9.0386305694420896E-3</v>
+      </c>
+      <c r="C209" s="9">
+        <v>2.2822490131261999E-2</v>
+      </c>
       <c r="I209" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>8</v>
       </c>
@@ -11581,20 +14194,1064 @@
       </c>
       <c r="C210" s="10">
         <f>MEDIAN(C200:C209)</f>
-        <v>2.17328186220467E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.1922579329728901E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B211" s="3">
         <f>AVERAGE(B200:B209)</f>
-        <v>1.1224587238887418E-2</v>
+        <v>1.1031488596953885E-2</v>
       </c>
       <c r="C211" s="3">
         <f>AVERAGE(C200:C209)</f>
-        <v>2.9758216392938214E-2</v>
+        <v>2.9263180479197647E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="17"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="17"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="4">
+        <v>1.23974169868748E-2</v>
+      </c>
+      <c r="C218" s="5">
+        <v>3.3995370007763898E-2</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="1">
+        <v>100</v>
+      </c>
+      <c r="H218" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="6">
+        <v>1.09968498097603E-2</v>
+      </c>
+      <c r="C219" s="7">
+        <v>1.52427999070262E-2</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="1">
+        <v>6</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="6">
+        <v>1.9256752164113801E-2</v>
+      </c>
+      <c r="C220" s="7">
+        <v>1.9201827523185801E-2</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="6">
+        <v>1.73897697737431E-2</v>
+      </c>
+      <c r="C221" s="7">
+        <v>1.9077708262042099E-2</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="H221" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="6">
+        <v>2.2020408120500899E-2</v>
+      </c>
+      <c r="C222" s="7">
+        <v>5.99680787283942E-2</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" s="6">
+        <v>1.29578928675009E-2</v>
+      </c>
+      <c r="C223" s="7">
+        <v>3.4014529420338203E-2</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="I223" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="6">
+        <v>1.73941095485401E-2</v>
+      </c>
+      <c r="C224" s="7">
+        <v>1.99317844408755E-2</v>
+      </c>
+      <c r="I224" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="6">
+        <v>4.2736956754312001E-2</v>
+      </c>
+      <c r="C225" s="7">
+        <v>8.9961735718014496E-2</v>
+      </c>
+      <c r="I225" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="6">
+        <v>1.30901323914997E-2</v>
+      </c>
+      <c r="C226" s="7">
+        <v>8.9618236706596605E-2</v>
+      </c>
+      <c r="I226" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="8">
+        <v>1.30572442955825E-2</v>
+      </c>
+      <c r="C227" s="9">
+        <v>2.40141245427123E-2</v>
+      </c>
+      <c r="I227" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="10">
+        <f>MEDIAN(B218:B227)</f>
+        <v>1.5239951082621401E-2</v>
+      </c>
+      <c r="C228" s="10">
+        <f>MEDIAN(C218:C227)</f>
+        <v>2.9004747275238101E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="3">
+        <f>AVERAGE(B218:B227)</f>
+        <v>1.8129753271242811E-2</v>
+      </c>
+      <c r="C229" s="3">
+        <f>AVERAGE(C218:C227)</f>
+        <v>4.0502619525694936E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="17"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="17"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="4">
+        <v>3.9486508926472999E-2</v>
+      </c>
+      <c r="C236" s="5">
+        <v>0.11213827326482401</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="1">
+        <v>100</v>
+      </c>
+      <c r="H236" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="6">
+        <v>2.7835812700541598E-2</v>
+      </c>
+      <c r="C237" s="7">
+        <v>8.9744330505027503E-2</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" s="1">
+        <v>6</v>
+      </c>
+      <c r="H237" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="6">
+        <v>1.41158469072858E-2</v>
+      </c>
+      <c r="C238" s="7">
+        <v>0.157551504939277</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H238" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="6">
+        <v>9.8970962193676206E-3</v>
+      </c>
+      <c r="C239" s="7">
+        <v>9.9093068672167807E-3</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="H239" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="6">
+        <v>1.51920806299578E-2</v>
+      </c>
+      <c r="C240" s="7">
+        <v>1.8199688013822799E-2</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="6">
+        <v>2.9773395660575699E-2</v>
+      </c>
+      <c r="C241" s="7">
+        <v>4.1352824689795002E-2</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="I241" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="6">
+        <v>1.2031981096196701E-2</v>
+      </c>
+      <c r="C242" s="7">
+        <v>1.83751562328579E-2</v>
+      </c>
+      <c r="I242" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="6">
+        <v>9.4136063681312908E-3</v>
+      </c>
+      <c r="C243" s="7">
+        <v>1.3860198029136701E-2</v>
+      </c>
+      <c r="I243" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="6">
+        <v>1.70317108661307E-2</v>
+      </c>
+      <c r="C244" s="7">
+        <v>2.17600571956547E-2</v>
+      </c>
+      <c r="I244" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="8">
+        <v>0.10531540173137099</v>
+      </c>
+      <c r="C245" s="9">
+        <v>0.20526260703144</v>
+      </c>
+      <c r="I245" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="10">
+        <f>MEDIAN(B236:B245)</f>
+        <v>1.6111895748044249E-2</v>
+      </c>
+      <c r="C246" s="10">
+        <f>MEDIAN(C236:C245)</f>
+        <v>3.1556440942724848E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="3">
+        <f>AVERAGE(B236:B245)</f>
+        <v>2.8009344110603119E-2</v>
+      </c>
+      <c r="C247" s="3">
+        <f>AVERAGE(C236:C245)</f>
+        <v>6.8815394676905256E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="17"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="17"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="4">
+        <v>4.4267325121839E-2</v>
+      </c>
+      <c r="C254" s="5">
+        <v>0.118234324019377</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="1">
+        <v>100</v>
+      </c>
+      <c r="H254" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="6">
+        <v>1.47702168820548E-2</v>
+      </c>
+      <c r="C255" s="7">
+        <v>1.4838787167348801E-2</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" s="1">
+        <v>6</v>
+      </c>
+      <c r="H255" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="6">
+        <v>1.15395606024638E-2</v>
+      </c>
+      <c r="C256" s="7">
+        <v>1.5097774235944401E-2</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H256" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="6">
+        <v>9.2694407932133408E-3</v>
+      </c>
+      <c r="C257" s="7">
+        <v>9.1405767061776295E-3</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F257" s="1">
+        <v>1</v>
+      </c>
+      <c r="H257" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="6">
+        <v>1.1635043297113699E-2</v>
+      </c>
+      <c r="C258" s="7">
+        <v>1.39751418979979E-2</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="6">
+        <v>1.22673597484434E-2</v>
+      </c>
+      <c r="C259" s="7">
+        <v>4.7698502857783501E-2</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259" s="1"/>
+      <c r="I259" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="6">
+        <v>1.18205171985547E-2</v>
+      </c>
+      <c r="C260" s="7">
+        <v>1.20344102280507E-2</v>
+      </c>
+      <c r="I260" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="6">
+        <v>1.02995176351312E-2</v>
+      </c>
+      <c r="C261" s="7">
+        <v>3.9045353910019003E-2</v>
+      </c>
+      <c r="I261" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="6">
+        <v>9.9023297070014102E-3</v>
+      </c>
+      <c r="C262" s="7">
+        <v>2.1088511060517699E-2</v>
+      </c>
+      <c r="I262" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" s="8">
+        <v>1.00951615874008E-2</v>
+      </c>
+      <c r="C263" s="9">
+        <v>1.6860413583752301E-2</v>
+      </c>
+      <c r="I263" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="10">
+        <f>MEDIAN(B254:B263)</f>
+        <v>1.1587301949788749E-2</v>
+      </c>
+      <c r="C264" s="10">
+        <f>MEDIAN(C254:C263)</f>
+        <v>1.5979093909848349E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="3">
+        <f>AVERAGE(B254:B263)</f>
+        <v>1.4586647257321617E-2</v>
+      </c>
+      <c r="C265" s="3">
+        <f>AVERAGE(C254:C263)</f>
+        <v>3.0801379566696891E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="17"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="17"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="4">
+        <v>1.0511754816608701E-2</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1.26079826366632E-2</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="1">
+        <v>100</v>
+      </c>
+      <c r="H272" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="6">
+        <v>1.17120206138061E-2</v>
+      </c>
+      <c r="C273" s="7">
+        <v>1.37566494363669E-2</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="1">
+        <v>8</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="6">
+        <v>8.1037624619801196E-3</v>
+      </c>
+      <c r="C274" s="7">
+        <v>1.38324876755592E-2</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H274" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="6">
+        <v>1.64826550141907E-2</v>
+      </c>
+      <c r="C275" s="7">
+        <v>1.6723809957874598E-2</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="1">
+        <v>1</v>
+      </c>
+      <c r="H275" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="6">
+        <v>1.49283158861944E-2</v>
+      </c>
+      <c r="C276" s="7">
+        <v>2.11393408390235E-2</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="6">
+        <v>9.9590692242654596E-3</v>
+      </c>
+      <c r="C277" s="7">
+        <v>3.1762725902686799E-2</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="I277" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" s="6">
+        <v>1.1865614714483001E-2</v>
+      </c>
+      <c r="C278" s="7">
+        <v>1.1705731090199199E-2</v>
+      </c>
+      <c r="I278" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="6">
+        <v>1.8620638514943499E-2</v>
+      </c>
+      <c r="C279" s="7">
+        <v>4.6001059895857802E-2</v>
+      </c>
+      <c r="I279" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="6">
+        <v>1.13704173894894E-2</v>
+      </c>
+      <c r="C280" s="7">
+        <v>1.39460659691262E-2</v>
+      </c>
+      <c r="I280" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" s="8">
+        <v>1.1340233141234999E-2</v>
+      </c>
+      <c r="C281" s="9">
+        <v>1.00447562533281E-2</v>
+      </c>
+      <c r="I281" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="10">
+        <f>MEDIAN(B272:B281)</f>
+        <v>1.154121900164775E-2</v>
+      </c>
+      <c r="C282" s="10">
+        <f>MEDIAN(C272:C281)</f>
+        <v>1.38892768223427E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="3">
+        <f>AVERAGE(B272:B281)</f>
+        <v>1.248944817771964E-2</v>
+      </c>
+      <c r="C283" s="3">
+        <f>AVERAGE(C272:C281)</f>
+        <v>1.9152060965668551E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -11,114 +11,146 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$37</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Sheet2!$B$172</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Sheet2!$B$173:$B$182</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Sheet2!$C$172</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Sheet2!$C$173:$C$182</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Sheet2!$B$87</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Sheet2!$B$88:$B$97</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Sheet2!$C$87</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Sheet2!$C$88:$C$97</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$38:$C$47</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$56:$B$65</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$55</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$56:$C$65</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$73</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$74:$B$83</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$73</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$74:$C$83</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$109</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$110:$B$119</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$109</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$110:$C$119</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$91</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$92:$B$101</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$91</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$92:$C$101</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$127</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$128:$B$137</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$127</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$128:$C$137</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$199</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$200:$B$209</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$199</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$200:$C$209</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$145</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$146:$B$155</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$145</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$146:$C$155</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$38:$B$47</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$181</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Sheet2!$B$70</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Sheet2!$B$71:$B$80</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Sheet2!$C$70</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Sheet2!$C$71:$C$80</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Sheet2!$B$138</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Sheet2!$B$139:$B$148</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Sheet2!$C$138</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Sheet2!$C$139:$C$148</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Sheet2!$B$155</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Sheet2!$B$156:$B$165</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$182:$C$191</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Sheet2!$C$155</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Sheet2!$C$156:$C$165</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Sheet2!$B$172</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Sheet2!$B$173:$B$182</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Sheet2!$C$172</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Sheet2!$C$173:$C$182</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Sheet2!$B$240</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Sheet2!$B$241:$B$250</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Sheet2!$C$240</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Sheet2!$C$241:$C$250</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$199</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Sheet2!$B$189</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Sheet2!$B$190:$B$199</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Sheet2!$C$189</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">Sheet2!$C$190:$C$199</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">Sheet2!$B$291</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">Sheet2!$B$292:$B$301</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">Sheet2!$C$291</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">Sheet2!$C$292:$C$301</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">Sheet2!$B$223</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">Sheet2!$B$224:$B$233</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$200:$B$209</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">Sheet2!$C$223</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">Sheet2!$C$224:$C$233</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">Sheet2!$B$274</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">Sheet2!$B$275:$B$284</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">Sheet2!$C$274</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">Sheet2!$C$275:$C$284</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">Sheet2!$B$308</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">Sheet2!$B$309:$B$318</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">Sheet2!$C$308</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">Sheet2!$C$309:$C$318</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$199</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$200:$C$209</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$163</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$164:$B$173</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$163</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$164:$C$173</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$37</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$145</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$146:$B$155</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$145</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$146:$C$155</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$55</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$56:$B$65</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$56:$C$65</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$91</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$92:$B$101</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$38:$C$47</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$91</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$92:$C$101</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$73</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$74:$B$83</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$73</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$74:$C$83</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$18</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$163</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$164:$B$173</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$163</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$164:$C$173</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$181</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$182:$B$191</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$181</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$182:$C$191</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$217</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$218:$B$227</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$127</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$128:$B$137</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$127</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$128:$C$137</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$109</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$110:$B$119</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$109</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$110:$C$119</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$271</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$272:$B$281</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$217</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$218:$C$227</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$235</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$236:$B$245</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$235</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$236:$C$245</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$253</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$254:$B$263</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$253</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$254:$C$263</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$271</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$272:$C$281</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$217</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$218:$B$227</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$217</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$218:$C$227</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$235</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$236:$B$245</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$235</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$236:$C$245</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$18</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$271</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$272:$B$281</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$271</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$272:$C$281</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet2!$B$19</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet2!$B$20:$B$29</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet2!$C$19</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet2!$C$20:$C$29</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet2!$B$2</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet2!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$253</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$254:$B$263</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$253</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$254:$C$263</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet2!$B$257</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet2!$B$258:$B$267</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet2!$C$257</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet2!$C$258:$C$267</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet2!$B$206</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet2!$B$207:$B$216</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet2!$C$2</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet2!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet2!$C$206</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet2!$C$207:$C$216</definedName>
     <definedName name="_xlchart.v1.72" hidden="1">Sheet2!$B$53</definedName>
     <definedName name="_xlchart.v1.73" hidden="1">Sheet2!$B$54:$B$63</definedName>
     <definedName name="_xlchart.v1.74" hidden="1">Sheet2!$C$53</definedName>
     <definedName name="_xlchart.v1.75" hidden="1">Sheet2!$C$54:$C$63</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet2!$B$70</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet2!$B$71:$B$80</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet2!$C$70</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet2!$C$71:$C$80</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$37</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet2!$B$121</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet2!$B$122:$B$131</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet2!$C$121</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet2!$C$122:$C$131</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet2!$B$155</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet2!$B$156:$B$165</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet2!$C$155</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet2!$C$156:$C$165</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet2!$B$2</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet2!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet2!$C$2</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet2!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$181</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet2!$B$19</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet2!$B$20:$B$29</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet2!$C$19</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet2!$C$20:$C$29</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet2!$B$36</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet2!$B$37:$B$46</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet2!$C$36</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet2!$C$37:$C$46</definedName>
     <definedName name="_xlchart.v1.88" hidden="1">Sheet2!$B$104</definedName>
     <definedName name="_xlchart.v1.89" hidden="1">Sheet2!$B$105:$B$114</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$38:$B$47</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$182:$B$191</definedName>
     <definedName name="_xlchart.v1.90" hidden="1">Sheet2!$C$104</definedName>
     <definedName name="_xlchart.v1.91" hidden="1">Sheet2!$C$105:$C$114</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet2!$B$138</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet2!$B$139:$B$148</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet2!$C$138</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet2!$C$139:$C$148</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet2!$B$36</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet2!$B$37:$B$46</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet2!$C$36</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Sheet2!$C$37:$C$46</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet2!$B$121</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet2!$B$122:$B$131</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet2!$C$121</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet2!$C$122:$C$131</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Sheet2!$B$87</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Sheet2!$B$88:$B$97</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Sheet2!$C$87</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Sheet2!$C$88:$C$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -130,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="105">
   <si>
     <t>Default</t>
   </si>
@@ -397,6 +429,54 @@
   </si>
   <si>
     <t>Experiment No 26</t>
+  </si>
+  <si>
+    <t>8 point</t>
+  </si>
+  <si>
+    <t>Experiment No 27</t>
+  </si>
+  <si>
+    <t>7 point</t>
+  </si>
+  <si>
+    <t>Experiment No 28</t>
+  </si>
+  <si>
+    <t>6 point</t>
+  </si>
+  <si>
+    <t>Experiment No 29</t>
+  </si>
+  <si>
+    <t>Tournament replace = 2</t>
+  </si>
+  <si>
+    <t>Experiment No 30</t>
+  </si>
+  <si>
+    <t>Tournament replace = 3</t>
+  </si>
+  <si>
+    <t>Experiment No 31</t>
+  </si>
+  <si>
+    <t>Tournament replace = 5</t>
+  </si>
+  <si>
+    <t>Experiment No 32</t>
+  </si>
+  <si>
+    <t>Replace if better</t>
+  </si>
+  <si>
+    <t>Experiment No 33</t>
+  </si>
+  <si>
+    <t>Replace worst if better</t>
+  </si>
+  <si>
+    <t>Experiment No 34</t>
   </si>
 </sst>
 </file>
@@ -718,12 +798,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -734,7 +814,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -747,7 +827,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -769,12 +849,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -785,7 +865,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -798,7 +878,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -820,12 +900,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -836,7 +916,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -849,7 +929,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -867,57 +947,6 @@
 </file>
 
 <file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -968,7 +997,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1019,7 +1048,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1037,7 +1066,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.60</cx:f>
@@ -1050,10 +1079,61 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1084,12 +1164,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.77</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.79</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1100,7 +1180,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.76</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1113,7 +1193,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.78</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1136,12 +1216,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.81</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.83</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1152,7 +1232,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.80</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1165,7 +1245,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.82</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1188,12 +1268,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
+        <cx:f>_xlchart.v1.85</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.99</cx:f>
+        <cx:f>_xlchart.v1.87</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1204,7 +1284,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:f>_xlchart.v1.84</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1217,7 +1297,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:f>_xlchart.v1.86</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1240,12 +1320,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1256,7 +1336,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1269,7 +1349,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1343,12 +1423,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.101</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.103</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1359,7 +1439,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.100</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1372,7 +1452,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.102</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1391,6 +1471,162 @@
 </file>
 
 <file path=xl/charts/chartEx22.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.97</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.99</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx23.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.89</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.91</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx24.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.93</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.95</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.92</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.94</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx25.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1442,17 +1678,69 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx26.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.89</cx:f>
+        <cx:f>_xlchart.v1.109</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.91</cx:f>
+        <cx:f>_xlchart.v1.111</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.110</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx27.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.113</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.115</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1463,7 +1751,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:f>_xlchart.v1.112</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1476,7 +1764,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:f>_xlchart.v1.114</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1503,78 +1791,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx28.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.121</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx25.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.93</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.95</cx:f>
+        <cx:f>_xlchart.v1.123</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1585,7 +1812,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.92</cx:f>
+              <cx:f>_xlchart.v1.120</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1598,7 +1825,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.94</cx:f>
+              <cx:f>_xlchart.v1.122</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1616,17 +1843,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx29.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.71</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1634,10 +1861,10 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:f>_xlchart.v1.68</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1647,132 +1874,10 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.86</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx27.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.101</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.103</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.100</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.102</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.70</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1786,122 +1891,11 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
   <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1952,17 +1946,408 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx30.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.129</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.131</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx31.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.117</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.119</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx32.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.65</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.67</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx33.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.133</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx34.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.127</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx35.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.137</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.139</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1973,7 +2358,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1986,7 +2371,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2003,7 +2388,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -2054,17 +2439,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2075,7 +2460,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2088,7 +2473,109 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2905,7 +3392,327 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12905,7 +13712,3895 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18150,6 +22845,550 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Chart 12"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="14" name="Chart 13"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Chart 14"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="16" name="Chart 15"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="17" name="Chart 16"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Chart 17"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Chart 18"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4290060</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Chart 19"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18418,8 +23657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22533,21 +27772,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -24066,7 +29305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>3</v>
       </c>
@@ -24089,7 +29328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>4</v>
       </c>
@@ -24112,7 +29351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>5</v>
       </c>
@@ -24135,7 +29374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>6</v>
       </c>
@@ -24158,7 +29397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>7</v>
       </c>
@@ -24175,7 +29414,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>11</v>
       </c>
@@ -24192,7 +29431,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>12</v>
       </c>
@@ -24203,7 +29442,7 @@
         <v>0.22477302048232101</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>9</v>
       </c>
@@ -24214,7 +29453,7 @@
         <v>0.25954032711719799</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>10</v>
       </c>
@@ -24225,7 +29464,7 @@
         <v>0.14220242806382499</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>13</v>
       </c>
@@ -24314,7 +29553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>3</v>
       </c>
@@ -24337,7 +29576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>4</v>
       </c>
@@ -24360,7 +29599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>5</v>
       </c>
@@ -24383,7 +29622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>6</v>
       </c>
@@ -24406,7 +29645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>7</v>
       </c>
@@ -24423,7 +29662,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>11</v>
       </c>
@@ -24440,7 +29679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>12</v>
       </c>
@@ -24451,7 +29690,7 @@
         <v>0.26744725226597199</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>9</v>
       </c>
@@ -24462,7 +29701,7 @@
         <v>0.218070951237814</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>10</v>
       </c>
@@ -24473,7 +29712,7 @@
         <v>0.236337585601406</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>13</v>
       </c>
@@ -24810,7 +30049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>3</v>
       </c>
@@ -24833,7 +30072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>4</v>
       </c>
@@ -24856,7 +30095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>5</v>
       </c>
@@ -24879,7 +30118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>6</v>
       </c>
@@ -24902,7 +30141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>7</v>
       </c>
@@ -24919,7 +30158,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>11</v>
       </c>
@@ -24936,7 +30175,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>12</v>
       </c>
@@ -24947,7 +30186,7 @@
         <v>0.282820864126269</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>9</v>
       </c>
@@ -24958,7 +30197,7 @@
         <v>0.25022820169270299</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>10</v>
       </c>
@@ -24969,7 +30208,7 @@
         <v>0.19953110573800401</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>13</v>
       </c>
@@ -25150,7 +30389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>7</v>
       </c>
@@ -25167,7 +30406,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>11</v>
       </c>
@@ -25184,7 +30423,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>12</v>
       </c>
@@ -25195,7 +30434,7 @@
         <v>0.29159322450849401</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>9</v>
       </c>
@@ -25206,7 +30445,7 @@
         <v>0.247211198734853</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>10</v>
       </c>
@@ -25217,7 +30456,7 @@
         <v>0.24728318512693301</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>13</v>
       </c>
@@ -25228,7 +30467,7 @@
         <v>0.196089118133186</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>8</v>
       </c>
@@ -25241,7 +30480,7 @@
         <v>0.21611113093565248</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>22</v>
       </c>
@@ -25252,6 +30491,1991 @@
       <c r="C184" s="3">
         <f>AVERAGE(C173:C182)</f>
         <v>0.21866194483916393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="17"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0.122129233419801</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.25109862706812403</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="1">
+        <v>200</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="6">
+        <v>0.12986998096281999</v>
+      </c>
+      <c r="C191" s="7">
+        <v>0.26270193119952401</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="1">
+        <v>5</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="6">
+        <v>0.12723302460666899</v>
+      </c>
+      <c r="C192" s="7">
+        <v>0.27683983308358001</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H192" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="6">
+        <v>0.108174123234409</v>
+      </c>
+      <c r="C193" s="7">
+        <v>0.23678913171854299</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="1">
+        <v>3</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="6">
+        <v>0.10212309499910301</v>
+      </c>
+      <c r="C194" s="7">
+        <v>0.24433483425170699</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="6">
+        <v>0.129309506368668</v>
+      </c>
+      <c r="C195" s="7">
+        <v>0.274625348208064</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="6">
+        <v>8.9713052961428605E-2</v>
+      </c>
+      <c r="C196" s="7">
+        <v>0.168265134582955</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="6">
+        <v>0.108512343428456</v>
+      </c>
+      <c r="C197" s="7">
+        <v>0.22896599968120501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="6">
+        <v>0.118613691420942</v>
+      </c>
+      <c r="C198" s="7">
+        <v>0.24754117193033101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="8">
+        <v>0.104970948471047</v>
+      </c>
+      <c r="C199" s="9">
+        <v>0.225976028540774</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="10">
+        <f>MEDIAN(B190:B199)</f>
+        <v>0.113563017424699</v>
+      </c>
+      <c r="C200" s="10">
+        <f>MEDIAN(C190:C199)</f>
+        <v>0.24593800309101899</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B201" s="3">
+        <f>AVERAGE(B190:B199)</f>
+        <v>0.11406489998733435</v>
+      </c>
+      <c r="C201" s="3">
+        <f>AVERAGE(C190:C199)</f>
+        <v>0.24171380402648071</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="17"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="17"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="4">
+        <v>9.4278200942044796E-2</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.20164218641354301</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="1">
+        <v>200</v>
+      </c>
+      <c r="H207" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="6">
+        <v>2.35026276732112E-2</v>
+      </c>
+      <c r="C208" s="7">
+        <v>7.5296527877829297E-2</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="1">
+        <v>5</v>
+      </c>
+      <c r="H208" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="6">
+        <v>0.11605006457092</v>
+      </c>
+      <c r="C209" s="7">
+        <v>0.26179290907299202</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H209" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="6">
+        <v>0.109723235919127</v>
+      </c>
+      <c r="C210" s="7">
+        <v>0.261823299181831</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+      <c r="H210" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="6">
+        <v>0.129407867804268</v>
+      </c>
+      <c r="C211" s="7">
+        <v>0.27635491661317801</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="6">
+        <v>0.109572043664314</v>
+      </c>
+      <c r="C212" s="7">
+        <v>0.274238768603835</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="6">
+        <v>0.100198524697044</v>
+      </c>
+      <c r="C213" s="7">
+        <v>0.21942721846941299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="6">
+        <v>0.12274057117899601</v>
+      </c>
+      <c r="C214" s="7">
+        <v>0.32059779890603501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="6">
+        <v>0.126047182278714</v>
+      </c>
+      <c r="C215" s="7">
+        <v>0.28496825091725803</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="8">
+        <v>0.12724438885523301</v>
+      </c>
+      <c r="C216" s="9">
+        <v>0.28309562897436902</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="10">
+        <f>MEDIAN(B207:B216)</f>
+        <v>0.11288665024502351</v>
+      </c>
+      <c r="C217" s="10">
+        <f>MEDIAN(C207:C216)</f>
+        <v>0.268031033892833</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="3">
+        <f>AVERAGE(B207:B216)</f>
+        <v>0.1058764707583872</v>
+      </c>
+      <c r="C218" s="3">
+        <f>AVERAGE(C207:C216)</f>
+        <v>0.24592375050302834</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="17"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="17"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="4">
+        <v>8.1979831121356497E-2</v>
+      </c>
+      <c r="C224" s="5">
+        <v>0.19383877155235299</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="1">
+        <v>200</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="6">
+        <v>0.13097767461620999</v>
+      </c>
+      <c r="C225" s="7">
+        <v>0.25230061573399098</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="1">
+        <v>5</v>
+      </c>
+      <c r="H225" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="6">
+        <v>7.5930216861807898E-2</v>
+      </c>
+      <c r="C226" s="7">
+        <v>0.20988243632944301</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="6">
+        <v>6.8310743037856794E-2</v>
+      </c>
+      <c r="C227" s="7">
+        <v>0.12645411368182299</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" s="1">
+        <v>3</v>
+      </c>
+      <c r="H227" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="6">
+        <v>0.125986269044043</v>
+      </c>
+      <c r="C228" s="7">
+        <v>0.23982452207572999</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" s="6">
+        <v>8.2371698229197196E-2</v>
+      </c>
+      <c r="C229" s="7">
+        <v>0.12120535928541</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="6">
+        <v>0.12214515924739799</v>
+      </c>
+      <c r="C230" s="7">
+        <v>0.29856167058456401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="6">
+        <v>0.117309213839207</v>
+      </c>
+      <c r="C231" s="7">
+        <v>0.27281758554198798</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="6">
+        <v>0.114859617459485</v>
+      </c>
+      <c r="C232" s="7">
+        <v>0.27169995397447599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="8">
+        <v>2.1053247798693501E-2</v>
+      </c>
+      <c r="C233" s="9">
+        <v>0.109511063763716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="10">
+        <f>MEDIAN(B224:B233)</f>
+        <v>9.8615657844341092E-2</v>
+      </c>
+      <c r="C234" s="10">
+        <f>MEDIAN(C224:C233)</f>
+        <v>0.2248534792025865</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="3">
+        <f>AVERAGE(B224:B233)</f>
+        <v>9.4092367125525503E-2</v>
+      </c>
+      <c r="C235" s="3">
+        <f>AVERAGE(C224:C233)</f>
+        <v>0.20960960925234939</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="17"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="17"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0.11733438630854</v>
+      </c>
+      <c r="C241" s="5">
+        <v>0.236949947806332</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="1">
+        <v>200</v>
+      </c>
+      <c r="H241" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="6">
+        <v>0.105416731115353</v>
+      </c>
+      <c r="C242" s="7">
+        <v>0.29636864243481698</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="1">
+        <v>5</v>
+      </c>
+      <c r="H242" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="6">
+        <v>5.9359595676021899E-2</v>
+      </c>
+      <c r="C243" s="7">
+        <v>0.22193760579878999</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H243" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="6">
+        <v>0.100826266363266</v>
+      </c>
+      <c r="C244" s="7">
+        <v>0.19673628383647301</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244" s="1">
+        <v>3</v>
+      </c>
+      <c r="H244" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="6">
+        <v>8.0681730588201106E-2</v>
+      </c>
+      <c r="C245" s="7">
+        <v>0.17419353199999299</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="6">
+        <v>0.105563456512815</v>
+      </c>
+      <c r="C246" s="7">
+        <v>0.264626337810283</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="6">
+        <v>4.9512977128003899E-2</v>
+      </c>
+      <c r="C247" s="7">
+        <v>0.11254420968253701</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="6">
+        <v>0.116144174880263</v>
+      </c>
+      <c r="C248" s="7">
+        <v>0.238558150944463</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="6">
+        <v>0.10676666253741</v>
+      </c>
+      <c r="C249" s="7">
+        <v>0.25723437807664901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="8">
+        <v>0.12201086764689301</v>
+      </c>
+      <c r="C250" s="9">
+        <v>0.256546155520538</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="10">
+        <f>MEDIAN(B241:B250)</f>
+        <v>0.105490093814084</v>
+      </c>
+      <c r="C251" s="10">
+        <f>MEDIAN(C241:C250)</f>
+        <v>0.23775404937539751</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="3">
+        <f>AVERAGE(B241:B250)</f>
+        <v>9.6361684875676687E-2</v>
+      </c>
+      <c r="C252" s="3">
+        <f>AVERAGE(C241:C250)</f>
+        <v>0.22556952439108752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="17"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="17"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0.115264436762561</v>
+      </c>
+      <c r="C258" s="5">
+        <v>0.233121131392241</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="1">
+        <v>200</v>
+      </c>
+      <c r="H258" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="6">
+        <v>0.11536778788464901</v>
+      </c>
+      <c r="C259" s="7">
+        <v>0.26636049633638598</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" s="1">
+        <v>5</v>
+      </c>
+      <c r="H259" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="6">
+        <v>0.10211642059003</v>
+      </c>
+      <c r="C260" s="7">
+        <v>0.248936516715415</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F260" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H260" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" s="6">
+        <v>0.10214670468039901</v>
+      </c>
+      <c r="C261" s="7">
+        <v>0.22202416051460699</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" s="1">
+        <v>3</v>
+      </c>
+      <c r="H261" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="6">
+        <v>0.128867626100129</v>
+      </c>
+      <c r="C262" s="7">
+        <v>0.23606433202084701</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" s="6">
+        <v>0.12704203638636299</v>
+      </c>
+      <c r="C263" s="7">
+        <v>0.28005984430091602</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="6">
+        <v>0.113548736510801</v>
+      </c>
+      <c r="C264" s="7">
+        <v>0.24350585125861601</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="6">
+        <v>0.132715387034886</v>
+      </c>
+      <c r="C265" s="7">
+        <v>0.28221365299122197</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="6">
+        <v>8.9912073419573996E-2</v>
+      </c>
+      <c r="C266" s="7">
+        <v>0.22122899092459899</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="8">
+        <v>0.11392772446944199</v>
+      </c>
+      <c r="C267" s="9">
+        <v>0.24314929380380501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="10">
+        <f>MEDIAN(B258:B267)</f>
+        <v>0.11459608061600149</v>
+      </c>
+      <c r="C268" s="10">
+        <f>MEDIAN(C258:C267)</f>
+        <v>0.24332757253121051</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="3">
+        <f>AVERAGE(B258:B267)</f>
+        <v>0.11409089338388338</v>
+      </c>
+      <c r="C269" s="3">
+        <f>AVERAGE(C258:C267)</f>
+        <v>0.24766642702586542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="17"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="17"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="17"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="17"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="17"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="17"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" s="4">
+        <v>5.2007835616476303E-2</v>
+      </c>
+      <c r="C275" s="5">
+        <v>0.12719417948860601</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" s="1">
+        <v>200</v>
+      </c>
+      <c r="H275" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" s="6">
+        <v>9.5436085766405096E-2</v>
+      </c>
+      <c r="C276" s="7">
+        <v>0.32502781937821501</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="1">
+        <v>5</v>
+      </c>
+      <c r="H276" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="6">
+        <v>0.112450372454034</v>
+      </c>
+      <c r="C277" s="7">
+        <v>0.23881379757919399</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F277" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H277" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" s="6">
+        <v>0.10527757057151201</v>
+      </c>
+      <c r="C278" s="7">
+        <v>0.34041108856267999</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F278" s="1">
+        <v>3</v>
+      </c>
+      <c r="H278" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" s="6">
+        <v>0.131620978355627</v>
+      </c>
+      <c r="C279" s="7">
+        <v>0.25557977465651799</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="6">
+        <v>0.12906672553815701</v>
+      </c>
+      <c r="C280" s="7">
+        <v>0.233018960322701</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="6">
+        <v>0.11875688635757201</v>
+      </c>
+      <c r="C281" s="7">
+        <v>0.23118288155849101</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" s="6">
+        <v>4.2349590050818703E-2</v>
+      </c>
+      <c r="C282" s="7">
+        <v>0.129845418835556</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" s="6">
+        <v>0.131101823641009</v>
+      </c>
+      <c r="C283" s="7">
+        <v>0.26131867342938597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="8">
+        <v>0.104900649737037</v>
+      </c>
+      <c r="C284" s="9">
+        <v>0.23537801997622901</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="10">
+        <f>MEDIAN(B275:B284)</f>
+        <v>0.10886397151277299</v>
+      </c>
+      <c r="C285" s="10">
+        <f>MEDIAN(C275:C284)</f>
+        <v>0.2370959087777115</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="3">
+        <f>AVERAGE(B275:B284)</f>
+        <v>0.1022968518088648</v>
+      </c>
+      <c r="C286" s="3">
+        <f>AVERAGE(C275:C284)</f>
+        <v>0.23777706137875762</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="17"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="17"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="17"/>
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="17"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="17"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="17"/>
+      <c r="D289" s="17"/>
+      <c r="E289" s="17"/>
+      <c r="F289" s="17"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="17"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="17"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0.135714798348088</v>
+      </c>
+      <c r="C292" s="5">
+        <v>0.26342426047129802</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" s="1">
+        <v>200</v>
+      </c>
+      <c r="H292" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="6">
+        <v>0.130236820520089</v>
+      </c>
+      <c r="C293" s="7">
+        <v>0.27677060650931201</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F293" s="1">
+        <v>5</v>
+      </c>
+      <c r="H293" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="6">
+        <v>0.11953578350015399</v>
+      </c>
+      <c r="C294" s="7">
+        <v>0.28262417176408</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F294" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H294" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" s="6">
+        <v>9.9398472350725395E-2</v>
+      </c>
+      <c r="C295" s="7">
+        <v>0.277107323827948</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295" s="1">
+        <v>3</v>
+      </c>
+      <c r="H295" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="6">
+        <v>0.129140479233533</v>
+      </c>
+      <c r="C296" s="7">
+        <v>0.278431066521172</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="6">
+        <v>0.113522865405316</v>
+      </c>
+      <c r="C297" s="7">
+        <v>0.21266839040706501</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="6">
+        <v>0.13134765256587799</v>
+      </c>
+      <c r="C298" s="7">
+        <v>0.26322163333854998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" s="6">
+        <v>0.116336542563371</v>
+      </c>
+      <c r="C299" s="7">
+        <v>0.29243713691164602</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="6">
+        <v>0.12830165204382801</v>
+      </c>
+      <c r="C300" s="7">
+        <v>0.29501858312960499</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="8">
+        <v>9.2660296096518893E-2</v>
+      </c>
+      <c r="C301" s="9">
+        <v>0.182614512719147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="10">
+        <f>MEDIAN(B292:B301)</f>
+        <v>0.12391871777199101</v>
+      </c>
+      <c r="C302" s="10">
+        <f>MEDIAN(C292:C301)</f>
+        <v>0.27693896516863004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303" s="3">
+        <f>AVERAGE(B292:B301)</f>
+        <v>0.11961953626275013</v>
+      </c>
+      <c r="C303" s="3">
+        <f>AVERAGE(C292:C301)</f>
+        <v>0.26243176855998229</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="17"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="17"/>
+      <c r="I305" s="17"/>
+      <c r="J305" s="17"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="17"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
+      <c r="D306" s="17"/>
+      <c r="E306" s="17"/>
+      <c r="F306" s="17"/>
+      <c r="G306" s="17"/>
+      <c r="H306" s="17"/>
+      <c r="I306" s="17"/>
+      <c r="J306" s="17"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="4">
+        <v>9.7366506378660997E-2</v>
+      </c>
+      <c r="C309" s="5">
+        <v>0.21745047201786</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" s="1">
+        <v>200</v>
+      </c>
+      <c r="H309" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" s="6">
+        <v>2.7790189966294E-2</v>
+      </c>
+      <c r="C310" s="7">
+        <v>5.2356869997110901E-2</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" s="1">
+        <v>5</v>
+      </c>
+      <c r="H310" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="6">
+        <v>1.09947237725046E-2</v>
+      </c>
+      <c r="C311" s="7">
+        <v>0.106599258841879</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H311" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="6">
+        <v>8.7224182718822998E-2</v>
+      </c>
+      <c r="C312" s="7">
+        <v>0.19981205673719399</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F312" s="1">
+        <v>3</v>
+      </c>
+      <c r="H312" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="6">
+        <v>5.2589618653418602E-2</v>
+      </c>
+      <c r="C313" s="7">
+        <v>0.177146974457107</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" s="6">
+        <v>1.97381007913334E-2</v>
+      </c>
+      <c r="C314" s="7">
+        <v>0.13480485084189001</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I314" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="6">
+        <v>1.6306096577130499E-2</v>
+      </c>
+      <c r="C315" s="7">
+        <v>2.0558492541938998E-2</v>
+      </c>
+      <c r="I315" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" s="6">
+        <v>7.0516813709577894E-2</v>
+      </c>
+      <c r="C316" s="7">
+        <v>0.20785156990528</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="6">
+        <v>0.11237601498585401</v>
+      </c>
+      <c r="C317" s="7">
+        <v>0.24290326128137099</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" s="8">
+        <v>7.4109298513802005E-2</v>
+      </c>
+      <c r="C318" s="9">
+        <v>0.12665851877251999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" s="10">
+        <f>MEDIAN(B309:B318)</f>
+        <v>6.1553216181498248E-2</v>
+      </c>
+      <c r="C319" s="10">
+        <f>MEDIAN(C309:C318)</f>
+        <v>0.1559759126494985</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" s="3">
+        <f>AVERAGE(B309:B318)</f>
+        <v>5.6901154606739904E-2</v>
+      </c>
+      <c r="C320" s="3">
+        <f>AVERAGE(C309:C318)</f>
+        <v>0.14861423253941511</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="119">
   <si>
     <t>Default</t>
   </si>
@@ -477,6 +477,48 @@
   </si>
   <si>
     <t>Experiment No 34</t>
+  </si>
+  <si>
+    <t>Experiment No 35</t>
+  </si>
+  <si>
+    <t>Mutate rate = 0.2</t>
+  </si>
+  <si>
+    <t>Mutate rate = 0.1</t>
+  </si>
+  <si>
+    <t>Experiment No 36</t>
+  </si>
+  <si>
+    <t>Experiment No 37</t>
+  </si>
+  <si>
+    <t>Mutate change = 0.5</t>
+  </si>
+  <si>
+    <t>min max Gene = -1 1</t>
+  </si>
+  <si>
+    <t>Experiment No 38</t>
+  </si>
+  <si>
+    <t>Experiment No 39</t>
+  </si>
+  <si>
+    <t>Experiment No 40</t>
+  </si>
+  <si>
+    <t>Experiment No 41</t>
+  </si>
+  <si>
+    <t>Experiment No 42</t>
+  </si>
+  <si>
+    <t>Experiment No 43</t>
+  </si>
+  <si>
+    <t>Experiment No 44</t>
   </si>
 </sst>
 </file>
@@ -21018,7 +21060,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1"/>
@@ -21038,7 +21080,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21086,7 +21128,7 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3"/>
@@ -21106,7 +21148,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21154,7 +21196,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Chart 4"/>
@@ -21174,7 +21216,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21222,7 +21264,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Chart 5"/>
@@ -21242,7 +21284,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="5" name="Rectangle 4"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21290,7 +21332,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Chart 6"/>
@@ -21310,7 +21352,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="6" name="Rectangle 5"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21358,7 +21400,7 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Chart 7"/>
@@ -21378,7 +21420,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="7" name="Rectangle 6"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21426,7 +21468,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Chart 8"/>
@@ -21446,7 +21488,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="8" name="Rectangle 7"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21494,7 +21536,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Chart 11"/>
@@ -21514,7 +21556,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="9" name="Rectangle 8"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21562,7 +21604,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Chart 12"/>
@@ -21582,7 +21624,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="10" name="Rectangle 9"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21630,7 +21672,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Chart 13"/>
@@ -21650,7 +21692,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="11" name="Rectangle 10"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21698,7 +21740,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Chart 15"/>
@@ -21718,7 +21760,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="12" name="Rectangle 11"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21766,7 +21808,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Chart 14"/>
@@ -21786,7 +21828,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="13" name="Rectangle 12"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21834,7 +21876,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Chart 16"/>
@@ -21854,7 +21896,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="14" name="Rectangle 13"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21902,7 +21944,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Chart 17"/>
@@ -21922,7 +21964,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="15" name="Rectangle 14"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21970,7 +22012,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Chart 18"/>
@@ -21990,7 +22032,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="16" name="Rectangle 15"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22038,7 +22080,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Chart 19"/>
@@ -22058,7 +22100,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="17" name="Rectangle 16"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22111,7 +22153,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22131,7 +22173,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22179,7 +22221,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Chart 2"/>
@@ -22199,7 +22241,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22247,7 +22289,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3"/>
@@ -22267,7 +22309,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22315,7 +22357,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Chart 4"/>
@@ -22335,7 +22377,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="5" name="Rectangle 4"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22383,7 +22425,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Chart 5"/>
@@ -22403,7 +22445,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="6" name="Rectangle 5"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22451,7 +22493,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Chart 6"/>
@@ -22471,7 +22513,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="7" name="Rectangle 6"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22519,7 +22561,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Chart 7"/>
@@ -22539,7 +22581,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="8" name="Rectangle 7"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22587,7 +22629,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Chart 8"/>
@@ -22607,7 +22649,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="9" name="Rectangle 8"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22655,7 +22697,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Chart 9"/>
@@ -22675,7 +22717,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="10" name="Rectangle 9"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22723,7 +22765,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Chart 10"/>
@@ -22743,7 +22785,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="11" name="Rectangle 10"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22791,7 +22833,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Chart 11"/>
@@ -22811,7 +22853,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="12" name="Rectangle 11"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22859,7 +22901,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Chart 12"/>
@@ -22879,7 +22921,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="13" name="Rectangle 12"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22927,7 +22969,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Chart 13"/>
@@ -22947,7 +22989,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="14" name="Rectangle 13"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22995,7 +23037,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Chart 14"/>
@@ -23015,7 +23057,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="15" name="Rectangle 14"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23063,7 +23105,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Chart 15"/>
@@ -23083,7 +23125,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="16" name="Rectangle 15"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23131,7 +23173,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Chart 16"/>
@@ -23151,7 +23193,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="17" name="Rectangle 16"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23199,7 +23241,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Chart 17"/>
@@ -23219,7 +23261,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="18" name="Rectangle 17"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23267,7 +23309,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Chart 18"/>
@@ -23287,7 +23329,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="19" name="Rectangle 18"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23335,7 +23377,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Chart 19"/>
@@ -23355,7 +23397,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="20" name="Rectangle 19"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23657,8 +23699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I25"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27772,10 +27814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J320"/>
+  <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C488" sqref="C488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30297,7 +30339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
         <v>3</v>
       </c>
@@ -30320,7 +30362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>4</v>
       </c>
@@ -30343,7 +30385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>5</v>
       </c>
@@ -30366,7 +30408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>6</v>
       </c>
@@ -30389,7 +30431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>7</v>
       </c>
@@ -30406,7 +30448,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>11</v>
       </c>
@@ -30423,7 +30465,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>12</v>
       </c>
@@ -30434,7 +30476,7 @@
         <v>0.29159322450849401</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>9</v>
       </c>
@@ -30445,7 +30487,7 @@
         <v>0.247211198734853</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>10</v>
       </c>
@@ -30456,7 +30498,7 @@
         <v>0.24728318512693301</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>13</v>
       </c>
@@ -31289,7 +31331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
         <v>3</v>
       </c>
@@ -31312,7 +31354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
         <v>4</v>
       </c>
@@ -31335,7 +31377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
         <v>5</v>
       </c>
@@ -31358,7 +31400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
         <v>6</v>
       </c>
@@ -31381,7 +31423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
         <v>7</v>
       </c>
@@ -31398,7 +31440,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="14" t="s">
         <v>11</v>
       </c>
@@ -31415,7 +31457,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
         <v>12</v>
       </c>
@@ -31426,7 +31468,7 @@
         <v>0.11254420968253701</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
         <v>9</v>
       </c>
@@ -31437,7 +31479,7 @@
         <v>0.238558150944463</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
         <v>10</v>
       </c>
@@ -31448,7 +31490,7 @@
         <v>0.25723437807664901</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="14" t="s">
         <v>13</v>
       </c>
@@ -32276,7 +32318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="13" t="s">
         <v>3</v>
       </c>
@@ -32299,7 +32341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
         <v>4</v>
       </c>
@@ -32322,7 +32364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="14" t="s">
         <v>5</v>
       </c>
@@ -32345,7 +32387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
         <v>6</v>
       </c>
@@ -32368,7 +32410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>7</v>
       </c>
@@ -32385,7 +32427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="14" t="s">
         <v>11</v>
       </c>
@@ -32405,7 +32447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
         <v>12</v>
       </c>
@@ -32419,7 +32461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="14" t="s">
         <v>9</v>
       </c>
@@ -32430,7 +32472,7 @@
         <v>0.20785156990528</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>10</v>
       </c>
@@ -32441,7 +32483,7 @@
         <v>0.24290326128137099</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
         <v>13</v>
       </c>
@@ -32476,6 +32518,2524 @@
       <c r="C320" s="3">
         <f>AVERAGE(C309:C318)</f>
         <v>0.14861423253941511</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="17"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="17"/>
+      <c r="D322" s="17"/>
+      <c r="E322" s="17"/>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" s="17"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="D323" s="17"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="4">
+        <v>1.2860360406481801E-2</v>
+      </c>
+      <c r="C326" s="5">
+        <v>4.8065466387885697E-2</v>
+      </c>
+      <c r="E326" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="1">
+        <v>200</v>
+      </c>
+      <c r="H326" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" s="6">
+        <v>9.8283657204675402E-3</v>
+      </c>
+      <c r="C327" s="7">
+        <v>3.4073842538614701E-2</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" s="1">
+        <v>5</v>
+      </c>
+      <c r="H327" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="6">
+        <v>8.9026024674574905E-2</v>
+      </c>
+      <c r="C328" s="7">
+        <v>0.25480537252556801</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F328" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H328" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="6">
+        <v>9.8499494148611894E-2</v>
+      </c>
+      <c r="C329" s="7">
+        <v>0.21232566962740401</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F329" s="1">
+        <v>3</v>
+      </c>
+      <c r="H329" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="6">
+        <v>0.113574301519194</v>
+      </c>
+      <c r="C330" s="7">
+        <v>0.291802174825331</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" s="6">
+        <v>9.6765982527850194E-2</v>
+      </c>
+      <c r="C331" s="7">
+        <v>0.22820815802748701</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I331" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="6">
+        <v>6.2224799120312098E-2</v>
+      </c>
+      <c r="C332" s="7">
+        <v>0.188438279337238</v>
+      </c>
+      <c r="I332" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" s="6">
+        <v>0.12551290437120699</v>
+      </c>
+      <c r="C333" s="7">
+        <v>0.28857387926022599</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="6">
+        <v>7.0844444496049402E-2</v>
+      </c>
+      <c r="C334" s="7">
+        <v>0.16664530134406699</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" s="8">
+        <v>0.100489119756679</v>
+      </c>
+      <c r="C335" s="9">
+        <v>0.203010295207212</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336" s="10">
+        <f>MEDIAN(B326:B335)</f>
+        <v>9.2896003601212557E-2</v>
+      </c>
+      <c r="C336" s="10">
+        <f>MEDIAN(C326:C335)</f>
+        <v>0.20766798241730799</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" s="3">
+        <f>AVERAGE(B326:B335)</f>
+        <v>7.7962579674142787E-2</v>
+      </c>
+      <c r="C337" s="3">
+        <f>AVERAGE(C326:C335)</f>
+        <v>0.1915948439081033</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" s="17"/>
+      <c r="B339" s="17"/>
+      <c r="C339" s="17"/>
+      <c r="D339" s="17"/>
+      <c r="E339" s="17"/>
+      <c r="F339" s="17"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="17"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="17"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" s="17"/>
+      <c r="B340" s="17"/>
+      <c r="C340" s="17"/>
+      <c r="D340" s="17"/>
+      <c r="E340" s="17"/>
+      <c r="F340" s="17"/>
+      <c r="G340" s="17"/>
+      <c r="H340" s="17"/>
+      <c r="I340" s="17"/>
+      <c r="J340" s="17"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" s="4">
+        <v>0.10519793195395399</v>
+      </c>
+      <c r="C343" s="5">
+        <v>0.22878695064523899</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="1">
+        <v>200</v>
+      </c>
+      <c r="H343" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="6">
+        <v>0.12754236705001501</v>
+      </c>
+      <c r="C344" s="7">
+        <v>0.28086915867822299</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="1">
+        <v>5</v>
+      </c>
+      <c r="H344" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="6">
+        <v>9.8179228419994199E-2</v>
+      </c>
+      <c r="C345" s="7">
+        <v>0.19448250134383199</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F345" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H345" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="6">
+        <v>0.103837360749314</v>
+      </c>
+      <c r="C346" s="7">
+        <v>0.22470785956303399</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F346" s="1">
+        <v>3</v>
+      </c>
+      <c r="H346" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="6">
+        <v>0.11625525756789799</v>
+      </c>
+      <c r="C347" s="7">
+        <v>0.204914878355591</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F347" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" s="6">
+        <v>2.5584321430300701E-2</v>
+      </c>
+      <c r="C348" s="7">
+        <v>8.8847158254220404E-2</v>
+      </c>
+      <c r="E348" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I348" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="6">
+        <v>7.6876627419419502E-2</v>
+      </c>
+      <c r="C349" s="7">
+        <v>0.17708927578712599</v>
+      </c>
+      <c r="I349" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="6">
+        <v>9.9746411255418499E-2</v>
+      </c>
+      <c r="C350" s="7">
+        <v>0.20323045865575101</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="6">
+        <v>2.8461739307051301E-2</v>
+      </c>
+      <c r="C351" s="7">
+        <v>0.19425103603310401</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" s="8">
+        <v>1.21899701827166E-2</v>
+      </c>
+      <c r="C352" s="9">
+        <v>2.8897260085391601E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="10">
+        <f>MEDIAN(B343:B352)</f>
+        <v>9.8962819837706356E-2</v>
+      </c>
+      <c r="C353" s="10">
+        <f>MEDIAN(C343:C352)</f>
+        <v>0.1988564799997915</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" s="3">
+        <f>AVERAGE(B343:B352)</f>
+        <v>7.9387121533608176E-2</v>
+      </c>
+      <c r="C354" s="3">
+        <f>AVERAGE(C343:C352)</f>
+        <v>0.1826076537401512</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" s="17"/>
+      <c r="B356" s="17"/>
+      <c r="C356" s="17"/>
+      <c r="D356" s="17"/>
+      <c r="E356" s="17"/>
+      <c r="F356" s="17"/>
+      <c r="G356" s="17"/>
+      <c r="H356" s="17"/>
+      <c r="I356" s="17"/>
+      <c r="J356" s="17"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" s="17"/>
+      <c r="B357" s="17"/>
+      <c r="C357" s="17"/>
+      <c r="D357" s="17"/>
+      <c r="E357" s="17"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+      <c r="J357" s="17"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360" s="4">
+        <v>9.7834106113711905E-2</v>
+      </c>
+      <c r="C360" s="5">
+        <v>0.24278302348156899</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" s="1">
+        <v>200</v>
+      </c>
+      <c r="H360" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" s="6">
+        <v>2.0567357883314201E-2</v>
+      </c>
+      <c r="C361" s="7">
+        <v>5.0404999872415403E-2</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F361" s="1">
+        <v>5</v>
+      </c>
+      <c r="H361" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="6">
+        <v>0.105026814571808</v>
+      </c>
+      <c r="C362" s="7">
+        <v>0.22828385995349401</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F362" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H362" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="6">
+        <v>9.2230697161094694E-2</v>
+      </c>
+      <c r="C363" s="7">
+        <v>0.18878154568008099</v>
+      </c>
+      <c r="E363" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F363" s="1">
+        <v>3</v>
+      </c>
+      <c r="H363" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" s="6">
+        <v>8.39136841114064E-2</v>
+      </c>
+      <c r="C364" s="7">
+        <v>0.18294117884965899</v>
+      </c>
+      <c r="E364" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="6">
+        <v>1.3413432354460001E-2</v>
+      </c>
+      <c r="C365" s="7">
+        <v>3.9449236994685999E-2</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I365" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="6">
+        <v>0.107418627719691</v>
+      </c>
+      <c r="C366" s="7">
+        <v>0.21153395458733901</v>
+      </c>
+      <c r="I366" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" s="6">
+        <v>7.1549812009860103E-2</v>
+      </c>
+      <c r="C367" s="7">
+        <v>0.183015380338133</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" s="6">
+        <v>8.4581395546709501E-2</v>
+      </c>
+      <c r="C368" s="7">
+        <v>0.198168622392702</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B369" s="8">
+        <v>0.106824380262452</v>
+      </c>
+      <c r="C369" s="9">
+        <v>0.20762261792134201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B370" s="10">
+        <f>MEDIAN(B360:B369)</f>
+        <v>8.840604635390209E-2</v>
+      </c>
+      <c r="C370" s="10">
+        <f>MEDIAN(C360:C369)</f>
+        <v>0.19347508403639149</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B371" s="3">
+        <f>AVERAGE(B360:B369)</f>
+        <v>7.833603077345079E-2</v>
+      </c>
+      <c r="C371" s="3">
+        <f>AVERAGE(C360:C369)</f>
+        <v>0.17329844200714201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" s="17"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="17"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="17"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" s="17"/>
+      <c r="B374" s="17"/>
+      <c r="C374" s="17"/>
+      <c r="D374" s="17"/>
+      <c r="E374" s="17"/>
+      <c r="F374" s="17"/>
+      <c r="G374" s="17"/>
+      <c r="H374" s="17"/>
+      <c r="I374" s="17"/>
+      <c r="J374" s="17"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" s="4">
+        <v>5.8432953604061998E-2</v>
+      </c>
+      <c r="C377" s="5">
+        <v>0.15073424572289701</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F377" s="1">
+        <v>200</v>
+      </c>
+      <c r="H377" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" s="6">
+        <v>9.3796919337498494E-2</v>
+      </c>
+      <c r="C378" s="7">
+        <v>0.179051418242092</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F378" s="1">
+        <v>5</v>
+      </c>
+      <c r="H378" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" s="6">
+        <v>5.4806640190016499E-2</v>
+      </c>
+      <c r="C379" s="7">
+        <v>0.121930620357038</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F379" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H379" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="6">
+        <v>0.127162614967467</v>
+      </c>
+      <c r="C380" s="7">
+        <v>0.27962569486394201</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1</v>
+      </c>
+      <c r="H380" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" s="6">
+        <v>5.8631914327610501E-2</v>
+      </c>
+      <c r="C381" s="7">
+        <v>0.179280859814065</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F381" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" s="6">
+        <v>5.5285755752687203E-2</v>
+      </c>
+      <c r="C382" s="7">
+        <v>0.15250468807473899</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F382" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I382" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="6">
+        <v>5.2674852344268497E-2</v>
+      </c>
+      <c r="C383" s="7">
+        <v>9.3030466638992199E-2</v>
+      </c>
+      <c r="I383" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="6">
+        <v>5.9783999124528898E-2</v>
+      </c>
+      <c r="C384" s="7">
+        <v>0.126728647609304</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="6">
+        <v>7.1700193021517603E-2</v>
+      </c>
+      <c r="C385" s="7">
+        <v>0.195799858984046</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" s="8">
+        <v>0.107838162274315</v>
+      </c>
+      <c r="C386" s="9">
+        <v>0.23892485718998999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B387" s="10">
+        <f>MEDIAN(B377:B386)</f>
+        <v>5.9207956726069697E-2</v>
+      </c>
+      <c r="C387" s="10">
+        <f>MEDIAN(C377:C386)</f>
+        <v>0.16577805315841548</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B388" s="3">
+        <f>AVERAGE(B377:B386)</f>
+        <v>7.4011400494397167E-2</v>
+      </c>
+      <c r="C388" s="3">
+        <f>AVERAGE(C377:C386)</f>
+        <v>0.1717611357497105</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" s="17"/>
+      <c r="B390" s="17"/>
+      <c r="C390" s="17"/>
+      <c r="D390" s="17"/>
+      <c r="E390" s="17"/>
+      <c r="F390" s="17"/>
+      <c r="G390" s="17"/>
+      <c r="H390" s="17"/>
+      <c r="I390" s="17"/>
+      <c r="J390" s="17"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" s="17"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="17"/>
+      <c r="F391" s="17"/>
+      <c r="G391" s="17"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+      <c r="J391" s="17"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" s="4">
+        <v>1.8918018609514399E-2</v>
+      </c>
+      <c r="C394" s="5">
+        <v>2.5806998051911199E-2</v>
+      </c>
+      <c r="E394" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F394" s="1">
+        <v>200</v>
+      </c>
+      <c r="H394" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" s="6">
+        <v>1.23743590520804E-2</v>
+      </c>
+      <c r="C395" s="7">
+        <v>1.23935362515981E-2</v>
+      </c>
+      <c r="E395" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F395" s="1">
+        <v>5</v>
+      </c>
+      <c r="H395" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" s="6">
+        <v>8.53297370557962E-3</v>
+      </c>
+      <c r="C396" s="7">
+        <v>1.69421088171052E-2</v>
+      </c>
+      <c r="E396" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F396" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H396" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="6">
+        <v>1.5742331052612701E-2</v>
+      </c>
+      <c r="C397" s="7">
+        <v>1.83965603108887E-2</v>
+      </c>
+      <c r="E397" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F397" s="1">
+        <v>1</v>
+      </c>
+      <c r="H397" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="6">
+        <v>8.4632500981701095E-3</v>
+      </c>
+      <c r="C398" s="7">
+        <v>8.9056353332131605E-3</v>
+      </c>
+      <c r="E398" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F398" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="6">
+        <v>2.5530346036834E-2</v>
+      </c>
+      <c r="C399" s="7">
+        <v>7.2373618124652594E-2</v>
+      </c>
+      <c r="E399" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F399" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I399" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="6">
+        <v>9.8941218819712205E-3</v>
+      </c>
+      <c r="C400" s="7">
+        <v>1.6791817245349901E-2</v>
+      </c>
+      <c r="I400" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" s="6">
+        <v>1.61986626782985E-2</v>
+      </c>
+      <c r="C401" s="7">
+        <v>4.3963296697238301E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" s="6">
+        <v>9.2220079463519997E-2</v>
+      </c>
+      <c r="C402" s="7">
+        <v>0.22314922576784699</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B403" s="8">
+        <v>1.17205236713918E-2</v>
+      </c>
+      <c r="C403" s="9">
+        <v>5.8662711356795703E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" s="10">
+        <f>MEDIAN(B394:B403)</f>
+        <v>1.4058345052346551E-2</v>
+      </c>
+      <c r="C404" s="10">
+        <f>MEDIAN(C394:C403)</f>
+        <v>2.2101779181399949E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B405" s="3">
+        <f>AVERAGE(B394:B403)</f>
+        <v>2.1959466624997277E-2</v>
+      </c>
+      <c r="C405" s="3">
+        <f>AVERAGE(C394:C403)</f>
+        <v>4.9738550795659989E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" s="17"/>
+      <c r="B407" s="17"/>
+      <c r="C407" s="17"/>
+      <c r="D407" s="17"/>
+      <c r="E407" s="17"/>
+      <c r="F407" s="17"/>
+      <c r="G407" s="17"/>
+      <c r="H407" s="17"/>
+      <c r="I407" s="17"/>
+      <c r="J407" s="17"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" s="17"/>
+      <c r="B408" s="17"/>
+      <c r="C408" s="17"/>
+      <c r="D408" s="17"/>
+      <c r="E408" s="17"/>
+      <c r="F408" s="17"/>
+      <c r="G408" s="17"/>
+      <c r="H408" s="17"/>
+      <c r="I408" s="17"/>
+      <c r="J408" s="17"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411" s="4">
+        <v>1.1807521231958201E-2</v>
+      </c>
+      <c r="C411" s="5">
+        <v>1.2027761472668499E-2</v>
+      </c>
+      <c r="E411" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F411" s="1">
+        <v>100</v>
+      </c>
+      <c r="H411" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" s="6">
+        <v>8.5165771732897397E-2</v>
+      </c>
+      <c r="C412" s="7">
+        <v>0.182749412879461</v>
+      </c>
+      <c r="E412" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F412" s="1">
+        <v>5</v>
+      </c>
+      <c r="H412" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" s="6">
+        <v>1.05805841699002E-2</v>
+      </c>
+      <c r="C413" s="7">
+        <v>1.6567740486964199E-2</v>
+      </c>
+      <c r="E413" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F413" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H413" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="6">
+        <v>6.8902781746991897E-3</v>
+      </c>
+      <c r="C414" s="7">
+        <v>1.6195305190917698E-2</v>
+      </c>
+      <c r="E414" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F414" s="1">
+        <v>1</v>
+      </c>
+      <c r="H414" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" s="6">
+        <v>1.8996142768333502E-2</v>
+      </c>
+      <c r="C415" s="7">
+        <v>4.3530464318793503E-2</v>
+      </c>
+      <c r="E415" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F415" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416" s="6">
+        <v>1.8876736933146499E-2</v>
+      </c>
+      <c r="C416" s="7">
+        <v>3.1142454025882699E-2</v>
+      </c>
+      <c r="E416" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F416" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I416" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417" s="6">
+        <v>4.9548167355508398E-2</v>
+      </c>
+      <c r="C417" s="7">
+        <v>0.15189049925224701</v>
+      </c>
+      <c r="I417" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" s="6">
+        <v>4.3290210795766303E-2</v>
+      </c>
+      <c r="C418" s="7">
+        <v>0.119720928694889</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" s="6">
+        <v>1.29478372064969E-2</v>
+      </c>
+      <c r="C419" s="7">
+        <v>1.33904676985945E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" s="8">
+        <v>1.3701731820703699E-2</v>
+      </c>
+      <c r="C420" s="9">
+        <v>3.4631993142180101E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" s="10">
+        <f>MEDIAN(B411:B420)</f>
+        <v>1.6289234376925098E-2</v>
+      </c>
+      <c r="C421" s="10">
+        <f>MEDIAN(C411:C420)</f>
+        <v>3.28872235840314E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B422" s="3">
+        <f>AVERAGE(B411:B420)</f>
+        <v>2.7180498218941036E-2</v>
+      </c>
+      <c r="C422" s="3">
+        <f>AVERAGE(C411:C420)</f>
+        <v>6.2184702716259824E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" s="17"/>
+      <c r="B424" s="17"/>
+      <c r="C424" s="17"/>
+      <c r="D424" s="17"/>
+      <c r="E424" s="17"/>
+      <c r="F424" s="17"/>
+      <c r="G424" s="17"/>
+      <c r="H424" s="17"/>
+      <c r="I424" s="17"/>
+      <c r="J424" s="17"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" s="17"/>
+      <c r="B425" s="17"/>
+      <c r="C425" s="17"/>
+      <c r="D425" s="17"/>
+      <c r="E425" s="17"/>
+      <c r="F425" s="17"/>
+      <c r="G425" s="17"/>
+      <c r="H425" s="17"/>
+      <c r="I425" s="17"/>
+      <c r="J425" s="17"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="4">
+        <v>1.5704134402686701E-2</v>
+      </c>
+      <c r="C428" s="5">
+        <v>8.0590520082968298E-2</v>
+      </c>
+      <c r="E428" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F428" s="1">
+        <v>100</v>
+      </c>
+      <c r="H428" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" s="6">
+        <v>1.65610479233241E-2</v>
+      </c>
+      <c r="C429" s="7">
+        <v>2.2743175981782601E-2</v>
+      </c>
+      <c r="E429" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F429" s="1">
+        <v>8</v>
+      </c>
+      <c r="H429" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" s="6">
+        <v>8.5904979461658398E-2</v>
+      </c>
+      <c r="C430" s="7">
+        <v>0.30030955085941202</v>
+      </c>
+      <c r="E430" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F430" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H430" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="6">
+        <v>1.29742307353899E-2</v>
+      </c>
+      <c r="C431" s="7">
+        <v>4.2497372262028599E-2</v>
+      </c>
+      <c r="E431" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F431" s="1">
+        <v>1</v>
+      </c>
+      <c r="H431" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432" s="6">
+        <v>4.8178231089982898E-2</v>
+      </c>
+      <c r="C432" s="7">
+        <v>0.137199781834771</v>
+      </c>
+      <c r="E432" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F432" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433" s="6">
+        <v>1.283585161633E-2</v>
+      </c>
+      <c r="C433" s="7">
+        <v>2.2352699670126701E-2</v>
+      </c>
+      <c r="E433" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I433" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="6">
+        <v>1.51299033708081E-2</v>
+      </c>
+      <c r="C434" s="7">
+        <v>2.9959816377661801E-2</v>
+      </c>
+      <c r="I434" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B435" s="6">
+        <v>1.53571252062019E-2</v>
+      </c>
+      <c r="C435" s="7">
+        <v>2.5010182634850501E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" s="6">
+        <v>2.3030587473128701E-2</v>
+      </c>
+      <c r="C436" s="7">
+        <v>2.6687599191194001E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B437" s="8">
+        <v>1.8421651780169902E-2</v>
+      </c>
+      <c r="C437" s="9">
+        <v>3.9240458949135498E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B438" s="10">
+        <f>MEDIAN(B428:B437)</f>
+        <v>1.6132591163005403E-2</v>
+      </c>
+      <c r="C438" s="10">
+        <f>MEDIAN(C428:C437)</f>
+        <v>3.4600137663398652E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B439" s="3">
+        <f>AVERAGE(B428:B437)</f>
+        <v>2.640977430596806E-2</v>
+      </c>
+      <c r="C439" s="3">
+        <f>AVERAGE(C428:C437)</f>
+        <v>7.2659115784393102E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441" s="17"/>
+      <c r="B441" s="17"/>
+      <c r="C441" s="17"/>
+      <c r="D441" s="17"/>
+      <c r="E441" s="17"/>
+      <c r="F441" s="17"/>
+      <c r="G441" s="17"/>
+      <c r="H441" s="17"/>
+      <c r="I441" s="17"/>
+      <c r="J441" s="17"/>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442" s="17"/>
+      <c r="B442" s="17"/>
+      <c r="C442" s="17"/>
+      <c r="D442" s="17"/>
+      <c r="E442" s="17"/>
+      <c r="F442" s="17"/>
+      <c r="G442" s="17"/>
+      <c r="H442" s="17"/>
+      <c r="I442" s="17"/>
+      <c r="J442" s="17"/>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B445" s="4">
+        <v>1.1253866219150701E-2</v>
+      </c>
+      <c r="C445" s="5">
+        <v>1.38613174983023E-2</v>
+      </c>
+      <c r="E445" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F445" s="1">
+        <v>100</v>
+      </c>
+      <c r="H445" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" s="6">
+        <v>1.5875561576679301E-2</v>
+      </c>
+      <c r="C446" s="7">
+        <v>4.4113987351983901E-2</v>
+      </c>
+      <c r="E446" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F446" s="1">
+        <v>8</v>
+      </c>
+      <c r="H446" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" s="6">
+        <v>1.68979852034889E-2</v>
+      </c>
+      <c r="C447" s="7">
+        <v>1.79068899324775E-2</v>
+      </c>
+      <c r="E447" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F447" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H447" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="6">
+        <v>1.4092608919226099E-2</v>
+      </c>
+      <c r="C448" s="7">
+        <v>1.6361631033278999E-2</v>
+      </c>
+      <c r="E448" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F448" s="1">
+        <v>1</v>
+      </c>
+      <c r="H448" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" s="6">
+        <v>1.4027257937733999E-2</v>
+      </c>
+      <c r="C449" s="7">
+        <v>2.0260902471572501E-2</v>
+      </c>
+      <c r="E449" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F449" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B450" s="6">
+        <v>1.1022965672735601E-2</v>
+      </c>
+      <c r="C450" s="7">
+        <v>5.23663675061549E-2</v>
+      </c>
+      <c r="E450" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F450" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I450" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="6">
+        <v>1.1472554155525999E-2</v>
+      </c>
+      <c r="C451" s="7">
+        <v>1.1934553575644701E-2</v>
+      </c>
+      <c r="I451" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B452" s="6">
+        <v>8.7912007206653996E-3</v>
+      </c>
+      <c r="C452" s="7">
+        <v>5.09792209053158E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B453" s="6">
+        <v>1.1269392084662599E-2</v>
+      </c>
+      <c r="C453" s="7">
+        <v>1.25209038572359E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B454" s="8">
+        <v>1.4526741112116499E-2</v>
+      </c>
+      <c r="C454" s="9">
+        <v>3.61899317181264E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455" s="10">
+        <f>MEDIAN(B445:B454)</f>
+        <v>1.274990604663E-2</v>
+      </c>
+      <c r="C455" s="10">
+        <f>MEDIAN(C445:C454)</f>
+        <v>1.9083896202025E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="3">
+        <f>AVERAGE(B445:B454)</f>
+        <v>1.292301336019851E-2</v>
+      </c>
+      <c r="C456" s="3">
+        <f>AVERAGE(C445:C454)</f>
+        <v>2.7649570585009286E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458" s="17"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="17"/>
+      <c r="D458" s="17"/>
+      <c r="E458" s="17"/>
+      <c r="F458" s="17"/>
+      <c r="G458" s="17"/>
+      <c r="H458" s="17"/>
+      <c r="I458" s="17"/>
+      <c r="J458" s="17"/>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459" s="17"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="17"/>
+      <c r="D459" s="17"/>
+      <c r="E459" s="17"/>
+      <c r="F459" s="17"/>
+      <c r="G459" s="17"/>
+      <c r="H459" s="17"/>
+      <c r="I459" s="17"/>
+      <c r="J459" s="17"/>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B462" s="4">
+        <v>1.7917647661308201E-2</v>
+      </c>
+      <c r="C462" s="5">
+        <v>1.94902808989093E-2</v>
+      </c>
+      <c r="E462" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F462" s="1">
+        <v>100</v>
+      </c>
+      <c r="H462" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" s="6">
+        <v>1.0259340866773299E-2</v>
+      </c>
+      <c r="C463" s="7">
+        <v>1.9021212849215499E-2</v>
+      </c>
+      <c r="E463" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F463" s="1">
+        <v>8</v>
+      </c>
+      <c r="H463" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" s="6">
+        <v>1.4634309513861399E-2</v>
+      </c>
+      <c r="C464" s="7">
+        <v>1.6821560909965699E-2</v>
+      </c>
+      <c r="E464" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F464" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H464" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="6">
+        <v>2.3033559253033398E-2</v>
+      </c>
+      <c r="C465" s="7">
+        <v>3.1932080139351102E-2</v>
+      </c>
+      <c r="E465" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F465" s="1">
+        <v>1</v>
+      </c>
+      <c r="H465" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" s="6">
+        <v>1.16182073562607E-2</v>
+      </c>
+      <c r="C466" s="7">
+        <v>1.1206656969488299E-2</v>
+      </c>
+      <c r="E466" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F466" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B467" s="6">
+        <v>2.0442143993715599E-2</v>
+      </c>
+      <c r="C467" s="7">
+        <v>3.7390585980526497E-2</v>
+      </c>
+      <c r="E467" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F467" s="1"/>
+      <c r="I467" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="6">
+        <v>2.07243932286762E-2</v>
+      </c>
+      <c r="C468" s="7">
+        <v>2.4107451443239902E-2</v>
+      </c>
+      <c r="I468" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469" s="6">
+        <v>1.24973788289635E-2</v>
+      </c>
+      <c r="C469" s="7">
+        <v>1.7753595020368801E-2</v>
+      </c>
+      <c r="I469" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B470" s="6">
+        <v>2.0009232360054099E-2</v>
+      </c>
+      <c r="C470" s="7">
+        <v>2.6789835375377699E-2</v>
+      </c>
+      <c r="I470" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" s="8">
+        <v>1.5814301439818899E-2</v>
+      </c>
+      <c r="C471" s="9">
+        <v>4.2823735627117603E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A472" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B472" s="10">
+        <f>MEDIAN(B462:B471)</f>
+        <v>1.6865974550563552E-2</v>
+      </c>
+      <c r="C472" s="10">
+        <f>MEDIAN(C462:C471)</f>
+        <v>2.1798866171074599E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A473" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B473" s="3">
+        <f>AVERAGE(B462:B471)</f>
+        <v>1.669505145024653E-2</v>
+      </c>
+      <c r="C473" s="3">
+        <f>AVERAGE(C462:C471)</f>
+        <v>2.473369952135604E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A475" s="17"/>
+      <c r="B475" s="17"/>
+      <c r="C475" s="17"/>
+      <c r="D475" s="17"/>
+      <c r="E475" s="17"/>
+      <c r="F475" s="17"/>
+      <c r="G475" s="17"/>
+      <c r="H475" s="17"/>
+      <c r="I475" s="17"/>
+      <c r="J475" s="17"/>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A476" s="17"/>
+      <c r="B476" s="17"/>
+      <c r="C476" s="17"/>
+      <c r="D476" s="17"/>
+      <c r="E476" s="17"/>
+      <c r="F476" s="17"/>
+      <c r="G476" s="17"/>
+      <c r="H476" s="17"/>
+      <c r="I476" s="17"/>
+      <c r="J476" s="17"/>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A478" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A479" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B479" s="4">
+        <v>1.9647665963388499E-2</v>
+      </c>
+      <c r="C479" s="5">
+        <v>1.99618231889255E-2</v>
+      </c>
+      <c r="E479" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479" s="1">
+        <v>100</v>
+      </c>
+      <c r="H479" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A480" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" s="6">
+        <v>1.9247525772195399E-2</v>
+      </c>
+      <c r="C480" s="7">
+        <v>3.02119625310391E-2</v>
+      </c>
+      <c r="E480" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F480" s="1">
+        <v>8</v>
+      </c>
+      <c r="H480" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A481" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="6">
+        <v>1.9009802194733302E-2</v>
+      </c>
+      <c r="C481" s="7">
+        <v>2.5789486378841198E-2</v>
+      </c>
+      <c r="E481" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F481" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H481" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A482" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482" s="6">
+        <v>1.5960015473761802E-2</v>
+      </c>
+      <c r="C482" s="7">
+        <v>5.1754421291875199E-2</v>
+      </c>
+      <c r="E482" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F482" s="1">
+        <v>1</v>
+      </c>
+      <c r="H482" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A483" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" s="6">
+        <v>1.3284677724018999E-2</v>
+      </c>
+      <c r="C483" s="7">
+        <v>1.8041876559564001E-2</v>
+      </c>
+      <c r="E483" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F483" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A484" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B484" s="6">
+        <v>1.5187711531368501E-2</v>
+      </c>
+      <c r="C484" s="7">
+        <v>1.6198628463441299E-2</v>
+      </c>
+      <c r="E484" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F484" s="1"/>
+      <c r="I484" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A485" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485" s="6">
+        <v>1.1434439124415999E-2</v>
+      </c>
+      <c r="C485" s="7">
+        <v>1.93113770244361E-2</v>
+      </c>
+      <c r="I485" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A486" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B486" s="6">
+        <v>2.2992073198734701E-2</v>
+      </c>
+      <c r="C486" s="7">
+        <v>7.8335072368637002E-2</v>
+      </c>
+      <c r="I486" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A487" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="6">
+        <v>1.24462195634085E-2</v>
+      </c>
+      <c r="C487" s="7">
+        <v>1.28394306605669E-2</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A488" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B488" s="8">
+        <v>1.81018548966199E-2</v>
+      </c>
+      <c r="C488" s="9">
+        <v>2.0090217878036502E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A489" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B489" s="10">
+        <f>MEDIAN(B479:B488)</f>
+        <v>1.7030935185190853E-2</v>
+      </c>
+      <c r="C489" s="10">
+        <f>MEDIAN(C479:C488)</f>
+        <v>2.0026020533481001E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A490" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B490" s="3">
+        <f>AVERAGE(B479:B488)</f>
+        <v>1.673119854426456E-2</v>
+      </c>
+      <c r="C490" s="3">
+        <f>AVERAGE(C479:C488)</f>
+        <v>2.9253429634536282E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -4,153 +4,153 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$38:$B$47</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$181</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Sheet2!$B$70</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Sheet2!$B$71:$B$80</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Sheet2!$C$70</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Sheet2!$C$71:$C$80</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Sheet2!$B$138</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Sheet2!$B$139:$B$148</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Sheet2!$C$138</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Sheet2!$C$139:$C$148</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Sheet2!$B$155</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Sheet2!$B$156:$B$165</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$182:$C$191</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Sheet2!$C$155</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Sheet2!$C$156:$C$165</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Sheet2!$B$172</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Sheet2!$B$173:$B$182</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Sheet2!$C$172</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Sheet2!$C$173:$C$182</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Sheet2!$B$240</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Sheet2!$B$241:$B$250</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Sheet2!$C$240</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Sheet2!$C$241:$C$250</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$199</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">Sheet2!$B$189</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">Sheet2!$B$190:$B$199</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">Sheet2!$C$189</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">Sheet2!$C$190:$C$199</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">Sheet2!$B$291</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">Sheet2!$B$292:$B$301</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">Sheet2!$C$291</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">Sheet2!$C$292:$C$301</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">Sheet2!$B$223</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">Sheet2!$B$224:$B$233</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$200:$B$209</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">Sheet2!$C$223</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">Sheet2!$C$224:$C$233</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">Sheet2!$B$274</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">Sheet2!$B$275:$B$284</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">Sheet2!$C$274</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">Sheet2!$C$275:$C$284</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">Sheet2!$B$308</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">Sheet2!$B$309:$B$318</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">Sheet2!$C$308</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">Sheet2!$C$309:$C$318</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$199</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$200:$C$209</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$163</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$164:$B$173</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$163</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$164:$C$173</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$37</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$145</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$146:$B$155</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$145</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$146:$C$155</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$55</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$56:$B$65</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$55</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$56:$C$65</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$91</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$92:$B$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$38:$C$47</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$91</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$92:$C$101</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$73</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$74:$B$83</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$73</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$74:$C$83</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$18</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$127</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$128:$B$137</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$127</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$128:$C$137</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$109</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$110:$B$119</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$109</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$110:$C$119</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$271</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$272:$B$281</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$271</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$272:$C$281</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$217</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$218:$B$227</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$217</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$218:$C$227</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$235</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$236:$B$245</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$235</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$236:$C$245</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$18</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$253</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$254:$B$263</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$253</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$254:$C$263</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet2!$B$257</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet2!$B$258:$B$267</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet2!$C$257</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet2!$C$258:$C$267</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet2!$B$206</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet2!$B$207:$B$216</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet2!$C$206</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet2!$C$207:$C$216</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet2!$B$53</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet2!$B$54:$B$63</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet2!$C$53</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet2!$C$54:$C$63</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet2!$B$2</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet2!$B$3:$B$12</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet2!$C$2</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet2!$C$3:$C$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$181</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet2!$B$19</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet2!$B$20:$B$29</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet2!$C$19</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet2!$C$20:$C$29</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet2!$B$36</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet2!$B$37:$B$46</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet2!$C$36</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet2!$C$37:$C$46</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet2!$B$104</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet2!$B$105:$B$114</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$182:$B$191</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet2!$C$104</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet2!$C$105:$C$114</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet2!$B$121</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet2!$B$122:$B$131</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet2!$C$121</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet2!$C$122:$C$131</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet2!$B$87</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet2!$B$88:$B$97</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet2!$C$87</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Sheet2!$C$88:$C$97</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Sheet2!$B$189</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Sheet2!$B$190:$B$199</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Sheet2!$C$189</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Sheet2!$C$190:$C$199</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Sheet2!$B$155</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Sheet2!$B$156:$B$165</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Sheet2!$C$155</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Sheet2!$C$156:$C$165</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Sheet2!$B$172</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Sheet2!$B$173:$B$182</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$56:$C$65</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Sheet2!$C$172</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Sheet2!$C$173:$C$182</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Sheet2!$B$274</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Sheet2!$B$275:$B$284</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Sheet2!$C$274</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Sheet2!$C$275:$C$284</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Sheet2!$B$223</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Sheet2!$B$224:$B$233</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Sheet2!$C$223</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Sheet2!$C$224:$C$233</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$37</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Sheet2!$B$257</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Sheet2!$B$258:$B$267</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Sheet2!$C$257</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">Sheet2!$C$258:$C$267</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">Sheet2!$B$240</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">Sheet2!$B$241:$B$250</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">Sheet2!$C$240</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">Sheet2!$C$241:$C$250</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">Sheet2!$B$308</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">Sheet2!$B$309:$B$318</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$38:$B$47</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">Sheet2!$C$308</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">Sheet2!$C$309:$C$318</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">Sheet2!$B$291</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">Sheet2!$B$292:$B$301</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">Sheet2!$C$291</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">Sheet2!$C$292:$C$301</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">Sheet2!$B$2</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">Sheet2!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">Sheet2!$C$2</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">Sheet2!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$37</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$38:$C$47</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$91</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$92:$B$101</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$91</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$92:$C$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$18</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$73</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$74:$B$83</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$73</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$74:$C$83</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$109</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$110:$B$119</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$109</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$110:$C$119</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$253</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$254:$B$263</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$19:$C$28</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$253</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$254:$C$263</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$271</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$272:$B$281</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$271</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$272:$C$281</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$235</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$236:$B$245</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$235</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$236:$C$245</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$163</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$164:$B$173</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$163</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$164:$C$173</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$181</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$182:$B$191</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$181</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$182:$C$191</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$127</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$128:$B$137</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$127</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$128:$C$137</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$145</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$146:$B$155</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$145</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$146:$C$155</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$199</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$200:$B$209</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$199</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$200:$C$209</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$217</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$218:$B$227</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$217</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$218:$C$227</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet2!$B$19</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet2!$B$20:$B$29</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet2!$C$19</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet2!$C$20:$C$29</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet2!$B$70</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet2!$B$71:$B$80</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet2!$C$70</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet2!$C$71:$C$80</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet2!$B$36</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet2!$B$37:$B$46</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet2!$C$36</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet2!$C$37:$C$46</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet2!$B$53</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet2!$B$54:$B$63</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet2!$C$53</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet2!$C$54:$C$63</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$55</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet2!$B$104</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet2!$B$105:$B$114</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet2!$C$104</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet2!$C$105:$C$114</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet2!$B$121</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet2!$B$122:$B$131</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet2!$C$121</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet2!$C$122:$C$131</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sheet2!$B$138</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sheet2!$B$139:$B$148</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$56:$B$65</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Sheet2!$C$138</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Sheet2!$C$139:$C$148</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet2!$B$87</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet2!$B$88:$B$97</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet2!$C$87</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet2!$C$88:$C$97</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Sheet2!$B$206</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Sheet2!$B$207:$B$216</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Sheet2!$C$206</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Sheet2!$C$207:$C$216</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="124">
   <si>
     <t>Default</t>
   </si>
@@ -520,6 +520,21 @@
   <si>
     <t>Experiment No 44</t>
   </si>
+  <si>
+    <t>Repeate ex 15</t>
+  </si>
+  <si>
+    <t>Five point crossover at a random pointalong the chomosome -&gt; 2 children</t>
+  </si>
+  <si>
+    <t>Five point</t>
+  </si>
+  <si>
+    <t>Repeate ex 15 x 2</t>
+  </si>
+  <si>
+    <t>Five point x 2</t>
+  </si>
 </sst>
 </file>
 
@@ -779,6 +794,1523 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.57</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.63</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.137</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.139</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.65</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.67</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.73</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.75</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.77</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.79</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx21.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.69</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.71</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx22.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.93</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.95</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.92</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.94</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx23.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx24.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.86</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx25.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.89</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.91</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx26.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.105</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.107</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.104</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.106</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx27.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.109</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.111</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.110</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx28.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.101</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.103</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.100</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.102</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx29.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.97</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.99</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx30.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.117</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.119</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx31.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.127</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx32.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.121</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.123</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.120</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.122</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx33.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.113</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.115</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.112</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.114</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx34.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.133</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx35.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.129</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.131</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
@@ -835,7 +2367,58 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Fitness on training</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>Fitness on testing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -886,1058 +2469,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.86</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx21.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.101</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.103</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.100</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.102</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx22.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.99</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.96</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.98</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx23.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.89</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.91</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.88</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.90</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx24.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.93</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.95</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.92</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.94</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx25.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.105</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.107</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.104</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.106</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx26.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.109</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.111</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.108</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.110</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx27.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.113</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.115</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.112</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.114</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx28.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.121</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.123</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.120</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.122</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx29.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1988,408 +2520,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.129</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.131</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.128</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.130</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx31.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.117</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.119</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.116</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.118</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx32.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx33.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.133</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.135</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.132</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.134</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx34.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.125</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.127</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.124</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.126</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx35.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.137</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.139</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.136</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.138</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74230CD1-8691-40FC-9C3B-AF93DCBFFA84}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D898464-E2A7-4570-A0F8-B571BD39D444}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2400,7 +2541,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2413,160 +2554,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Fitness on testing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Fitness on training</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2588,12 +2576,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2604,7 +2592,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{EDB0B30E-52BA-427B-8789-731E002A604C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>Fitness on training</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2617,7 +2605,7 @@
         <cx:series layoutId="boxWhisker" hidden="1" uniqueId="{E142BA58-EAD1-47FD-B199-F07609EA5D86}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>Fitness on testing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -21060,7 +21048,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1"/>
@@ -21080,7 +21068,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21128,7 +21116,7 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3"/>
@@ -21148,7 +21136,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21196,7 +21184,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Chart 4"/>
@@ -21216,7 +21204,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21264,7 +21252,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Chart 5"/>
@@ -21284,7 +21272,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectangle 4"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21332,7 +21320,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Chart 6"/>
@@ -21352,7 +21340,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 5"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21400,7 +21388,7 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Chart 7"/>
@@ -21420,7 +21408,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Rectangle 6"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21468,7 +21456,7 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Chart 8"/>
@@ -21488,7 +21476,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Rectangle 7"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21536,7 +21524,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Chart 11"/>
@@ -21556,7 +21544,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Rectangle 8"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21604,7 +21592,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Chart 12"/>
@@ -21624,7 +21612,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Rectangle 9"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21672,7 +21660,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Chart 13"/>
@@ -21692,7 +21680,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Rectangle 10"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21740,7 +21728,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Chart 15"/>
@@ -21760,7 +21748,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21808,7 +21796,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Chart 14"/>
@@ -21828,7 +21816,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rectangle 12"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21876,7 +21864,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Chart 16"/>
@@ -21896,7 +21884,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -21944,7 +21932,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Chart 17"/>
@@ -21964,7 +21952,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rectangle 14"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22012,7 +22000,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Chart 18"/>
@@ -22032,7 +22020,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Rectangle 15"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22080,7 +22068,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Chart 19"/>
@@ -22100,7 +22088,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Rectangle 16"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22153,7 +22141,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22173,7 +22161,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22221,7 +22209,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Chart 2"/>
@@ -22241,7 +22229,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22289,7 +22277,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3"/>
@@ -22309,7 +22297,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22357,7 +22345,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Chart 4"/>
@@ -22377,7 +22365,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectangle 4"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22425,7 +22413,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Chart 5"/>
@@ -22445,7 +22433,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 5"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22493,7 +22481,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Chart 6"/>
@@ -22513,7 +22501,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Rectangle 6"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22561,7 +22549,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Chart 7"/>
@@ -22581,7 +22569,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Rectangle 7"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22629,7 +22617,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Chart 8"/>
@@ -22649,7 +22637,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Rectangle 8"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22697,7 +22685,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Chart 9"/>
@@ -22717,7 +22705,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Rectangle 9"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22765,7 +22753,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Chart 10"/>
@@ -22785,7 +22773,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Rectangle 10"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22833,7 +22821,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Chart 11"/>
@@ -22853,7 +22841,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22901,7 +22889,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Chart 12"/>
@@ -22921,7 +22909,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rectangle 12"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -22969,7 +22957,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Chart 13"/>
@@ -22989,7 +22977,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23037,7 +23025,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Chart 14"/>
@@ -23057,7 +23045,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rectangle 14"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23105,7 +23093,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Chart 15"/>
@@ -23125,7 +23113,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Rectangle 15"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23173,7 +23161,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Chart 16"/>
@@ -23193,7 +23181,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Rectangle 16"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23241,7 +23229,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Chart 17"/>
@@ -23261,7 +23249,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23309,7 +23297,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Chart 18"/>
@@ -23329,7 +23317,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rectangle 18"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23377,7 +23365,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Chart 19"/>
@@ -23397,7 +23385,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Rectangle 19"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -23697,10 +23685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J283"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27619,7 +27607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="14" t="s">
         <v>4</v>
       </c>
@@ -27642,7 +27630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
         <v>5</v>
       </c>
@@ -27665,7 +27653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
         <v>6</v>
       </c>
@@ -27688,7 +27676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
         <v>7</v>
       </c>
@@ -27705,7 +27693,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
         <v>11</v>
       </c>
@@ -27723,7 +27711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>12</v>
       </c>
@@ -27737,7 +27725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
         <v>9</v>
       </c>
@@ -27751,7 +27739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
         <v>10</v>
       </c>
@@ -27765,7 +27753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>13</v>
       </c>
@@ -27779,7 +27767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>8</v>
       </c>
@@ -27792,7 +27780,7 @@
         <v>1.38892768223427E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="15" t="s">
         <v>22</v>
       </c>
@@ -27803,6 +27791,1050 @@
       <c r="C283" s="3">
         <f>AVERAGE(C272:C281)</f>
         <v>1.9152060965668551E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="17"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="17"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="17"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="17"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="17"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" s="4">
+        <v>1.23415388542605E-2</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1.26208223680392E-2</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290" s="1">
+        <v>100</v>
+      </c>
+      <c r="H290" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" s="6">
+        <v>9.7895691024256302E-3</v>
+      </c>
+      <c r="C291" s="7">
+        <v>1.7897179412802201E-2</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" s="1">
+        <v>8</v>
+      </c>
+      <c r="H291" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="6">
+        <v>1.5421624680711701E-2</v>
+      </c>
+      <c r="C292" s="7">
+        <v>2.1169052956557601E-2</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F292" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H292" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="6">
+        <v>1.31325956130333E-2</v>
+      </c>
+      <c r="C293" s="7">
+        <v>1.9270368880356999E-2</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293" s="1">
+        <v>1</v>
+      </c>
+      <c r="H293" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="6">
+        <v>5.1675570309288703E-2</v>
+      </c>
+      <c r="C294" s="7">
+        <v>0.12432147504628099</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="6">
+        <v>3.7527562169268197E-2</v>
+      </c>
+      <c r="C295" s="7">
+        <v>3.48322507054801E-2</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="I295" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="6">
+        <v>1.2301770422648701E-2</v>
+      </c>
+      <c r="C296" s="7">
+        <v>1.38792258918095E-2</v>
+      </c>
+      <c r="I296" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297" s="6">
+        <v>1.65701000890487E-2</v>
+      </c>
+      <c r="C297" s="7">
+        <v>4.3449326638255098E-2</v>
+      </c>
+      <c r="I297" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="6">
+        <v>1.5166194930628899E-2</v>
+      </c>
+      <c r="C298" s="7">
+        <v>1.7983293082369501E-2</v>
+      </c>
+      <c r="I298" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="8">
+        <v>5.8580499264964898E-2</v>
+      </c>
+      <c r="C299" s="9">
+        <v>0.16521101656124201</v>
+      </c>
+      <c r="I299" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="10">
+        <f>MEDIAN(B290:B299)</f>
+        <v>1.5293909805670299E-2</v>
+      </c>
+      <c r="C300" s="10">
+        <f>MEDIAN(C290:C299)</f>
+        <v>2.0219710918457298E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" s="3">
+        <f>AVERAGE(B290:B299)</f>
+        <v>2.4250702543627923E-2</v>
+      </c>
+      <c r="C301" s="3">
+        <f>AVERAGE(C290:C299)</f>
+        <v>4.7063401154319319E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="17"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="17"/>
+      <c r="D303" s="17"/>
+      <c r="E303" s="17"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="17"/>
+      <c r="H303" s="17"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" s="17"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="17"/>
+      <c r="D304" s="17"/>
+      <c r="E304" s="17"/>
+      <c r="F304" s="17"/>
+      <c r="G304" s="17"/>
+      <c r="H304" s="17"/>
+      <c r="I304" s="17"/>
+      <c r="J304" s="17"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" s="4">
+        <v>9.1469245359966402E-3</v>
+      </c>
+      <c r="C307" s="5">
+        <v>1.1936774893019E-2</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F307" s="1">
+        <v>100</v>
+      </c>
+      <c r="H307" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" s="6">
+        <v>1.6063540988339599E-2</v>
+      </c>
+      <c r="C308" s="7">
+        <v>3.4503693205465598E-2</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="1">
+        <v>8</v>
+      </c>
+      <c r="H308" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="6">
+        <v>8.4621902457175102E-3</v>
+      </c>
+      <c r="C309" s="7">
+        <v>2.2473281340147401E-2</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F309" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H309" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" s="6">
+        <v>2.3740969427939702E-2</v>
+      </c>
+      <c r="C310" s="7">
+        <v>5.4294961466632902E-2</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1</v>
+      </c>
+      <c r="H310" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" s="6">
+        <v>9.8670309995689005E-3</v>
+      </c>
+      <c r="C311" s="7">
+        <v>1.68367026094286E-2</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B312" s="6">
+        <v>1.61511023703543E-2</v>
+      </c>
+      <c r="C312" s="7">
+        <v>2.6468891073685701E-2</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312" s="1"/>
+      <c r="I312" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="6">
+        <v>1.4253381574932399E-2</v>
+      </c>
+      <c r="C313" s="7">
+        <v>1.8491406694289999E-2</v>
+      </c>
+      <c r="I313" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="6">
+        <v>1.16461126292255E-2</v>
+      </c>
+      <c r="C314" s="7">
+        <v>1.6623781684757599E-2</v>
+      </c>
+      <c r="I314" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="6">
+        <v>1.1207442602147399E-2</v>
+      </c>
+      <c r="C315" s="7">
+        <v>4.7189254991735201E-2</v>
+      </c>
+      <c r="I315" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B316" s="8">
+        <v>1.71793710132901E-2</v>
+      </c>
+      <c r="C316" s="9">
+        <v>4.9996520340365898E-2</v>
+      </c>
+      <c r="I316" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B317" s="10">
+        <f>MEDIAN(B307:B316)</f>
+        <v>1.294974710207895E-2</v>
+      </c>
+      <c r="C317" s="10">
+        <f>MEDIAN(C307:C316)</f>
+        <v>2.4471086206916549E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" s="3">
+        <f>AVERAGE(B307:B316)</f>
+        <v>1.3771806638751206E-2</v>
+      </c>
+      <c r="C318" s="3">
+        <f>AVERAGE(C307:C316)</f>
+        <v>2.9881526829952786E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="17"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="17"/>
+      <c r="D320" s="17"/>
+      <c r="E320" s="17"/>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" s="17"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="17"/>
+      <c r="D321" s="17"/>
+      <c r="E321" s="17"/>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" s="4">
+        <v>8.51094561639755E-3</v>
+      </c>
+      <c r="C324" s="5">
+        <v>1.1192625436496999E-2</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="1">
+        <v>100</v>
+      </c>
+      <c r="H324" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" s="6">
+        <v>1.56032938532738E-2</v>
+      </c>
+      <c r="C325" s="7">
+        <v>3.5714584834824398E-2</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" s="1">
+        <v>8</v>
+      </c>
+      <c r="H325" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="6">
+        <v>1.34313944015555E-2</v>
+      </c>
+      <c r="C326" s="7">
+        <v>1.12877180181218E-2</v>
+      </c>
+      <c r="E326" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F326" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H326" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" s="6">
+        <v>1.2233960197692101E-2</v>
+      </c>
+      <c r="C327" s="7">
+        <v>2.1120568035338499E-2</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1</v>
+      </c>
+      <c r="H327" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="6">
+        <v>1.50650981460317E-2</v>
+      </c>
+      <c r="C328" s="7">
+        <v>1.53374197782909E-2</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F328" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" s="6">
+        <v>7.8497315144312498E-3</v>
+      </c>
+      <c r="C329" s="7">
+        <v>8.3435605962282992E-3</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="1"/>
+      <c r="I329" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330" s="6">
+        <v>9.8366113217928097E-3</v>
+      </c>
+      <c r="C330" s="7">
+        <v>2.0895185494361201E-2</v>
+      </c>
+      <c r="I330" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" s="6">
+        <v>1.7786975612223501E-2</v>
+      </c>
+      <c r="C331" s="7">
+        <v>4.3320863308783597E-2</v>
+      </c>
+      <c r="I331" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="6">
+        <v>9.9412508183143403E-3</v>
+      </c>
+      <c r="C332" s="7">
+        <v>1.01974243734144E-2</v>
+      </c>
+      <c r="I332" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="8">
+        <v>6.3275017159874603E-2</v>
+      </c>
+      <c r="C333" s="9">
+        <v>6.3404889895943201E-2</v>
+      </c>
+      <c r="I333" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B334" s="10">
+        <f>MEDIAN(B324:B333)</f>
+        <v>1.28326772996238E-2</v>
+      </c>
+      <c r="C334" s="10">
+        <f>MEDIAN(C324:C333)</f>
+        <v>1.8116302636326052E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" s="3">
+        <f>AVERAGE(B324:B333)</f>
+        <v>1.7353427864158714E-2</v>
+      </c>
+      <c r="C335" s="3">
+        <f>AVERAGE(C324:C333)</f>
+        <v>2.408148397718033E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="17"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="17"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" s="17"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="17"/>
+      <c r="D338" s="17"/>
+      <c r="E338" s="17"/>
+      <c r="F338" s="17"/>
+      <c r="G338" s="17"/>
+      <c r="H338" s="17"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="17"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" s="4">
+        <v>1.6922800131960299E-2</v>
+      </c>
+      <c r="C341" s="5">
+        <v>4.17002069655091E-2</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="1">
+        <v>100</v>
+      </c>
+      <c r="H341" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" s="6">
+        <v>1.9253941613691899E-2</v>
+      </c>
+      <c r="C342" s="7">
+        <v>4.8189242978801602E-2</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="1">
+        <v>8</v>
+      </c>
+      <c r="H342" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="6">
+        <v>1.3653841768816601E-2</v>
+      </c>
+      <c r="C343" s="7">
+        <v>1.87512630497647E-2</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F343" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H343" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" s="6">
+        <v>1.6577008564879699E-2</v>
+      </c>
+      <c r="C344" s="7">
+        <v>3.94626257413093E-2</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1</v>
+      </c>
+      <c r="H344" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" s="6">
+        <v>1.32089925850004E-2</v>
+      </c>
+      <c r="C345" s="7">
+        <v>1.3750628420235901E-2</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" s="6">
+        <v>2.7922506185745301E-2</v>
+      </c>
+      <c r="C346" s="7">
+        <v>3.11134959762908E-2</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F346" s="1"/>
+      <c r="I346" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="6">
+        <v>1.8552028370308098E-2</v>
+      </c>
+      <c r="C347" s="7">
+        <v>3.7408747692459998E-2</v>
+      </c>
+      <c r="I347" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" s="6">
+        <v>1.3482298225295E-2</v>
+      </c>
+      <c r="C348" s="7">
+        <v>2.9562668578289E-2</v>
+      </c>
+      <c r="I348" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="6">
+        <v>1.33830521693618E-2</v>
+      </c>
+      <c r="C349" s="7">
+        <v>1.3187826669255999E-2</v>
+      </c>
+      <c r="I349" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" s="8">
+        <v>3.5452592691323698E-2</v>
+      </c>
+      <c r="C350" s="9">
+        <v>7.1095578284444003E-2</v>
+      </c>
+      <c r="I350" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="10">
+        <f>MEDIAN(B341:B350)</f>
+        <v>1.6749904348419997E-2</v>
+      </c>
+      <c r="C351" s="10">
+        <f>MEDIAN(C341:C350)</f>
+        <v>3.4261121834375401E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B352" s="3">
+        <f>AVERAGE(B341:B350)</f>
+        <v>1.884090623063828E-2</v>
+      </c>
+      <c r="C352" s="3">
+        <f>AVERAGE(C341:C350)</f>
+        <v>3.442222843563604E-2</v>
       </c>
     </row>
   </sheetData>
@@ -27816,7 +28848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+    <sheetView topLeftCell="A447" workbookViewId="0">
       <selection activeCell="C488" sqref="C488"/>
     </sheetView>
   </sheetViews>
